--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -116,7 +116,7 @@
     <t>7.0000</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 10:28 AM</t>
+    <t>Thursday, 9 October, 2025 10:36 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>HI-POTENCY FORMULA 30 TABS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>PHENADONE SYRUP 100 ML</t>
   </si>
   <si>
@@ -101,22 +110,52 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
     <t>199:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>7.00</t>
   </si>
   <si>
     <t>7.0000</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 10:36 AM</t>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 9 October, 2025 11:23 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -856,7 +895,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -866,14 +905,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -882,66 +921,198 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>172.65000000000001</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>34</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>35</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c t="s" r="Q12" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>37</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>18</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>38</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>39</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>42</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>38</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>43</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>18</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>38</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>46</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>248.97999999999999</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>48</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>49</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>50</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -975,10 +1146,30 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -155,7 +155,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 11:23 AM</t>
+    <t>Thursday, 9 October, 2025 11:39 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -98,6 +98,27 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>PHENADONE SYRUP 100 ML</t>
   </si>
   <si>
@@ -125,13 +146,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -152,10 +173,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 9 October, 2025 11:39 AM</t>
+    <t>Thursday, 9 October, 2025 12:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -928,13 +946,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -961,7 +979,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -971,11 +989,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>25</v>
@@ -987,28 +1005,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1020,31 +1038,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1053,7 +1071,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1066,53 +1084,119 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>47</v>
       </c>
-      <c t="s" r="Q15" s="12">
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>49</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>30</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>50</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>248.97999999999999</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>48</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
-        <v>49</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
-        <v>50</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>18</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>30</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>53</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>400.98000000000002</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>54</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>55</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>56</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1166,10 +1250,20 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>HI-POTENCY FORMULA 30 TABS.</t>
   </si>
   <si>
@@ -119,6 +131,15 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>PHENADONE SYRUP 100 ML</t>
   </si>
   <si>
@@ -134,9 +155,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>7:1</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -173,7 +191,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 12:25 PM</t>
+    <t>Thursday, 9 October, 2025 12:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -913,7 +931,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -923,14 +941,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -939,20 +957,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -963,7 +981,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -979,24 +997,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1005,14 +1023,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1029,7 +1047,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1045,7 +1063,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1055,14 +1073,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1071,20 +1089,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1095,7 +1113,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1104,31 +1122,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1137,7 +1155,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1150,53 +1168,119 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>55</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>34</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>56</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>400.98000000000002</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>54</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
-        <v>55</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
-        <v>56</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>18</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>34</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>59</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>524.98000000000002</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>60</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>61</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>62</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1260,10 +1344,20 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -191,7 +191,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 12:35 PM</t>
+    <t>Thursday, 9 October, 2025 12:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -44,24 +44,33 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALGASON MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
     <t>45.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
@@ -152,6 +161,15 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>REPAION-N GEL 50 GM</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -191,7 +209,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 12:37 PM</t>
+    <t>Thursday, 9 October, 2025 12:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -849,7 +867,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -858,14 +876,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -875,14 +893,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -891,14 +909,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -908,14 +926,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -924,14 +942,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -941,14 +959,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -957,14 +975,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -981,7 +999,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1003,18 +1021,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1023,20 +1041,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1047,7 +1065,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1063,7 +1081,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1080,7 +1098,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1096,7 +1114,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1106,14 +1124,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1122,14 +1140,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1146,7 +1164,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1162,13 +1180,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1179,7 +1197,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1188,31 +1206,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1221,66 +1239,132 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>524.98000000000002</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>60</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
         <v>61</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>37</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>62</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>21</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>37</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>65</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>635.98000000000002</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>66</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>67</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>68</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1354,10 +1438,20 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -47,18 +47,21 @@
     <t>ALGASON MASSAGE CREAM 40 GM</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -119,69 +122,60 @@
     <t>49.5000</t>
   </si>
   <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>REPAION-N GEL 50 GM</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>178.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>REPAION-N GEL 50 GM</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -209,7 +203,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 12:38 PM</t>
+    <t>Thursday, 9 October, 2025 12:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -867,7 +861,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -876,14 +870,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -893,14 +887,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -909,14 +903,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -926,14 +920,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -942,14 +936,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -959,14 +953,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -975,14 +969,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -992,14 +986,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1008,14 +1002,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1025,14 +1019,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1041,31 +1035,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1074,14 +1068,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1091,14 +1085,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1107,14 +1101,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1124,14 +1118,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1140,14 +1134,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1157,14 +1151,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1173,7 +1167,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1190,14 +1184,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1206,14 +1200,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1223,14 +1217,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1239,31 +1233,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1272,31 +1266,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1305,42 +1299,42 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
       <c r="P22" s="13">
-        <v>635.98000000000002</v>
+        <v>623.98000000000002</v>
       </c>
       <c r="Q22" s="13"/>
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c t="s" r="A23" s="14">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -1348,13 +1342,13 @@
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c t="s" r="G23" s="15">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="16"/>
       <c t="s" r="K23" s="17">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -47,105 +47,105 @@
     <t>ALGASON MASSAGE CREAM 40 GM</t>
   </si>
   <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>B.B.C. ORAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>HI-POTENCY FORMULA 30 TABS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>AQUA PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>B.B.C. ORAL SPRAY 25 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>HI-POTENCY FORMULA 30 TABS.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>178.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
     <t>37.00</t>
   </si>
   <si>
@@ -203,7 +203,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 12:48 PM</t>
+    <t>Thursday, 9 October, 2025 12:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -861,7 +861,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -870,14 +870,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -887,14 +887,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -903,14 +903,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -920,14 +920,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -936,14 +936,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -953,14 +953,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -969,14 +969,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -986,14 +986,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1002,14 +1002,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1019,14 +1019,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1035,14 +1035,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1052,14 +1052,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1068,14 +1068,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1085,14 +1085,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1101,14 +1101,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1118,14 +1118,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1134,14 +1134,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1158,7 +1158,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1191,7 +1191,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1207,7 +1207,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1224,7 +1224,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1240,7 +1240,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1290,7 +1290,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1306,7 +1306,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1323,7 +1323,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -197,13 +209,25 @@
     <t>7.0000</t>
   </si>
   <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
     <t>8.00</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 12:59 PM</t>
+    <t>Thursday, 9 October, 2025 1:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1009,7 +1033,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1019,14 +1043,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1035,7 +1059,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1052,14 +1076,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1068,14 +1092,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1085,14 +1109,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1101,14 +1125,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1118,14 +1142,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1134,14 +1158,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1174,7 +1198,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1184,11 +1208,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1200,14 +1224,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1217,14 +1241,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1233,20 +1257,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1257,7 +1281,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1266,31 +1290,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1306,59 +1330,125 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>623.98000000000002</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>64</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>65</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>66</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>67</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>58</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>68</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>70</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>21</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>58</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>659.98000000000002</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>72</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>73</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>74</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1442,10 +1532,20 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -227,7 +227,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 1:02 PM</t>
+    <t>Thursday, 9 October, 2025 1:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -182,52 +182,82 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t xml:space="preserve">ZIAFER  30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>199:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>8.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>199:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>45:0</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>Thursday, 9 October, 2025 1:24 PM</t>
+    <t>Thursday, 9 October, 2025 2:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1297,24 +1327,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1330,24 +1360,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>65</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1363,24 +1393,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1389,20 +1419,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1410,45 +1440,144 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>659.98000000000002</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>72</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>73</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
         <v>74</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>59</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>67</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>21</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>59</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>77</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>79</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>21</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>59</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>80</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>733.88</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>82</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>83</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>84</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1542,10 +1671,25 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -257,7 +257,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 2:08 PM</t>
+    <t>Thursday, 9 October, 2025 2:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -101,13 +101,16 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>8:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -155,9 +158,6 @@
     <t>PHENADONE SYRUP 100 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>37.00</t>
   </si>
   <si>
@@ -257,7 +257,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 2:21 PM</t>
+    <t>Thursday, 9 October, 2025 2:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1047,7 +1047,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1056,14 +1056,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1073,11 +1073,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1106,11 +1106,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>28</v>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1172,11 +1172,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>28</v>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1205,11 +1205,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1221,14 +1221,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1294,7 +1294,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="27" ht="25.5" customHeight="1">
       <c r="P27" s="13">
-        <v>733.88</v>
+        <v>766.88</v>
       </c>
       <c r="Q27" s="13"/>
     </row>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -257,7 +257,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 2:47 PM</t>
+    <t>Thursday, 9 October, 2025 3:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -125,6 +125,24 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>HI-POTENCY FORMULA 30 TABS.</t>
   </si>
   <si>
@@ -146,6 +164,12 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
   </si>
   <si>
@@ -257,7 +281,22 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 3:02 PM</t>
+    <t>مرهم اكتيول اسود</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 9 October, 2025 4:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1096,7 +1135,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1129,7 +1168,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1139,11 +1178,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1155,14 +1194,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1172,11 +1211,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>28</v>
@@ -1188,7 +1227,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1205,11 +1244,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1228,7 +1267,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1245,7 +1284,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1271,11 +1310,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1287,14 +1326,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1304,14 +1343,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1320,31 +1359,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1353,31 +1392,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1386,31 +1425,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1419,31 +1458,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1452,31 +1491,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1485,7 +1524,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1498,18 +1537,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1518,66 +1557,231 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>81</v>
       </c>
-      <c t="s" r="Q26" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>766.88</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
         <v>82</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>67</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>75</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>83</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>84</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>21</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>67</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>85</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>87</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>21</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>67</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>88</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>90</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>91</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>67</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>88</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>92</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>73</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>67</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>93</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>911.72000000000003</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>95</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>96</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>97</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1686,10 +1890,35 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -296,7 +296,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 4:51 PM</t>
+    <t>Thursday, 9 October, 2025 4:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -152,6 +152,15 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -296,7 +305,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 4:52 PM</t>
+    <t>Thursday, 9 October, 2025 4:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1234,7 +1243,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1244,14 +1253,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1260,14 +1269,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1277,14 +1286,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1300,7 +1309,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1310,14 +1319,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1326,7 +1335,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1343,7 +1352,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1366,7 +1375,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1399,7 +1408,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1432,7 +1441,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1449,7 +1458,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1465,21 +1474,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>28</v>
@@ -1491,20 +1500,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1515,7 +1524,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1524,7 +1533,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1537,15 +1546,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>76</v>
@@ -1564,24 +1573,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1590,24 +1599,24 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1630,17 +1639,17 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1669,7 +1678,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1696,21 +1705,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1722,66 +1731,99 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>911.72000000000003</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>95</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>76</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>70</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>96</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>97</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>922.22000000000003</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>98</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>99</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>100</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1915,10 +1957,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -206,12 +215,18 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>16.8300</t>
   </si>
   <si>
@@ -305,7 +320,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 4:53 PM</t>
+    <t>Thursday, 9 October, 2025 4:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1144,7 +1159,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1161,7 +1176,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1177,7 +1192,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1194,7 +1209,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1210,7 +1225,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1227,7 +1242,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1243,7 +1258,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1276,7 +1291,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1286,14 +1301,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1302,14 +1317,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1319,14 +1334,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1342,7 +1357,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1352,14 +1367,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1368,7 +1383,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1385,7 +1400,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1408,7 +1423,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1441,7 +1456,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1474,7 +1489,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1491,7 +1506,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1507,24 +1522,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1533,31 +1548,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1566,31 +1581,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1599,31 +1614,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1632,31 +1647,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1665,28 +1680,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1698,28 +1713,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1731,28 +1746,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1771,13 +1786,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1792,38 +1807,104 @@
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>922.22000000000003</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>98</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
         <v>99</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>75</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>96</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>100</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>81</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>75</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>101</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1063.22</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>103</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>104</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>105</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1962,10 +2043,20 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -287,6 +287,15 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>سويت افوفا</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -320,7 +329,10 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 4:58 PM</t>
+    <t>مناديل شمع</t>
+  </si>
+  <si>
+    <t>Thursday, 9 October, 2025 5:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1753,7 +1765,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1819,7 +1831,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1829,11 +1841,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1845,14 +1857,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1862,49 +1874,115 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1063.22</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>103</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>81</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>75</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>104</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>105</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>106</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>17</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>75</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>93</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1123.22</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>107</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>108</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>109</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2053,10 +2131,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -332,7 +332,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 5:02 PM</t>
+    <t>Thursday, 9 October, 2025 5:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -332,7 +332,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 5:04 PM</t>
+    <t>Thursday, 9 October, 2025 5:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -245,84 +245,99 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>199:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سويت افوفا</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>مرهم اكتيول اسود</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>199:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>45:0</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سويت افوفا</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>مرهم اكتيول اسود</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>معجون سيجنال 50 مل</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -332,7 +347,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 5:09 PM</t>
+    <t>Thursday, 9 October, 2025 5:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1650,7 +1665,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1659,7 +1674,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1676,11 +1691,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>84</v>
@@ -1699,7 +1714,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1709,14 +1724,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>88</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1742,11 +1757,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1758,14 +1773,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1775,11 +1790,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1791,14 +1806,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1808,11 +1823,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1824,7 +1839,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1841,11 +1856,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1857,14 +1872,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1874,11 +1889,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1890,14 +1905,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1907,11 +1922,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1923,14 +1938,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1940,49 +1955,82 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1123.22</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>107</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>108</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
-        <v>109</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>111</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>17</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>75</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>97</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1133.22</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>112</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>113</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>114</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2141,10 +2189,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -347,7 +347,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 5:29 PM</t>
+    <t>Thursday, 9 October, 2025 5:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>2:0</t>
+  </si>
+  <si>
+    <t>DEXAWEST 60 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>136.0000</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -1153,7 +1162,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1163,11 +1172,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1179,14 +1188,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1219,7 +1228,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1236,7 +1245,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1252,7 +1261,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1269,7 +1278,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1285,7 +1294,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1302,7 +1311,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1318,7 +1327,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1351,7 +1360,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1361,14 +1370,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1377,14 +1386,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1394,14 +1403,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1417,7 +1426,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1427,14 +1436,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1443,7 +1452,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1460,7 +1469,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1483,7 +1492,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1516,7 +1525,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1549,7 +1558,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1582,7 +1591,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1592,14 +1601,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1608,28 +1617,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>28</v>
@@ -1641,20 +1650,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1665,7 +1674,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1687,7 +1696,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1698,7 +1707,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1707,7 +1716,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1720,18 +1729,18 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>88</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1740,31 +1749,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1773,24 +1782,24 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1813,17 +1822,17 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -1846,13 +1855,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1885,7 +1894,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1912,21 +1921,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1938,28 +1947,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -1971,66 +1980,99 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1133.22</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>112</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>113</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>114</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>17</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>78</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>100</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1269.22</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>115</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>116</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>117</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2194,10 +2236,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -119,7 +119,7 @@
     <t>136.00</t>
   </si>
   <si>
-    <t>136.0000</t>
+    <t>68.0000</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -224,6 +224,18 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -356,7 +368,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 5:34 PM</t>
+    <t>Thursday, 9 October, 2025 5:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1162,7 +1174,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1179,7 +1191,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1591,7 +1603,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1601,14 +1613,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1617,14 +1629,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1634,14 +1646,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1650,28 +1662,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>28</v>
@@ -1683,31 +1695,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1716,7 +1728,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1729,18 +1741,18 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1762,7 +1774,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1789,24 +1801,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>95</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1828,15 +1840,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1848,28 +1860,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1881,28 +1893,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1914,7 +1926,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1927,15 +1939,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1947,28 +1959,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -1980,28 +1992,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2020,59 +2032,92 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1269.22</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>115</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>116</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
-        <v>117</v>
-      </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>118</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>17</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>82</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>104</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1231.9100000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>119</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>120</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>121</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2241,10 +2286,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -368,7 +368,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 5:35 PM</t>
+    <t>Thursday, 9 October, 2025 5:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -197,6 +197,12 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
     <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
   </si>
   <si>
@@ -215,6 +221,18 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>PLATEN CREAM 50 ML</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
     <t>REPAION-N GEL 50 GM</t>
   </si>
   <si>
@@ -245,6 +263,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>VERSERC 24MG 30 TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -338,6 +365,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>لونا انبوبه وسط</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -368,7 +407,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 5:37 PM</t>
+    <t>Thursday, 9 October, 2025 5:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1518,10 +1557,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1530,14 +1569,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1547,11 +1586,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1563,14 +1602,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1580,11 +1619,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1596,14 +1635,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1613,14 +1652,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1629,14 +1668,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1646,11 +1685,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1662,14 +1701,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1679,11 +1718,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>28</v>
@@ -1695,31 +1734,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1728,28 +1767,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1761,31 +1800,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1794,31 +1833,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1827,28 +1866,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1860,31 +1899,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1893,31 +1932,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1926,20 +1965,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1966,17 +2005,17 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -1999,21 +2038,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2025,20 +2064,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2065,59 +2104,224 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1231.9100000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>119</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>120</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>121</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>71</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>91</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>116</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>122</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>21</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>91</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>123</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>125</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>126</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>91</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>123</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>127</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>128</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>91</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>129</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>131</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>17</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>91</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>113</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1622.9100000000001</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>132</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>133</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>134</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2291,10 +2495,35 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -59,6 +59,42 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>AM GINKO TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
+    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -71,12 +107,30 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>49.00</t>
   </si>
   <si>
@@ -95,9 +149,6 @@
     <t>34.6500</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -212,6 +263,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>PHENADONE SYRUP 100 ML</t>
   </si>
   <si>
@@ -284,9 +344,6 @@
     <t>1:2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>130.00</t>
   </si>
   <si>
@@ -407,7 +464,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 5:58 PM</t>
+    <t>Thursday, 9 October, 2025 6:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1087,15 +1144,15 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>12</v>
@@ -1107,14 +1164,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1124,11 +1181,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1140,14 +1197,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1164,7 +1221,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1173,14 +1230,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1190,14 +1247,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1206,14 +1263,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1223,14 +1280,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1239,14 +1296,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1256,11 +1313,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1272,14 +1329,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1289,11 +1346,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1305,14 +1362,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1322,14 +1379,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1338,14 +1395,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1362,7 +1419,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1371,7 +1428,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1388,14 +1445,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1404,14 +1461,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1421,14 +1478,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1437,7 +1494,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1454,11 +1511,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1470,14 +1527,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1487,14 +1544,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1503,14 +1560,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1520,11 +1577,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1536,7 +1593,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1553,14 +1610,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1569,14 +1626,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1586,14 +1643,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1602,14 +1659,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1619,11 +1676,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1635,14 +1692,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1652,14 +1709,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1668,7 +1725,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1685,11 +1742,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1701,14 +1758,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1718,14 +1775,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1741,7 +1798,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1774,7 +1831,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1807,7 +1864,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1817,14 +1874,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1833,20 +1890,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1857,7 +1914,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1873,13 +1930,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1906,24 +1963,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1939,13 +1996,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1956,7 +2013,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1965,28 +2022,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1998,31 +2055,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2031,31 +2088,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2064,28 +2121,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2097,31 +2154,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2130,31 +2187,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2163,28 +2220,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2196,28 +2253,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2229,28 +2286,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2262,66 +2319,264 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1622.9100000000001</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>137</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>123</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>18</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>138</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>140</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>91</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>18</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>135</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>141</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>22</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>18</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>142</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>144</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>145</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>18</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>142</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>146</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>147</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>18</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>148</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>150</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>29</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>18</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>132</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>133</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
-        <v>134</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2414.9099999999999</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>151</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>152</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>153</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2520,10 +2775,40 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -464,7 +464,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 6:00 PM</t>
+    <t>Thursday, 9 October, 2025 6:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -464,7 +464,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 6:01 PM</t>
+    <t>Thursday, 9 October, 2025 6:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -464,7 +473,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 6:02 PM</t>
+    <t>Thursday, 9 October, 2025 6:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1567,7 +1576,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1600,7 +1609,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1617,7 +1626,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1633,7 +1642,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1666,7 +1675,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1676,14 +1685,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1692,14 +1701,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1709,14 +1718,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1732,7 +1741,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1742,14 +1751,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1758,7 +1767,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1775,14 +1784,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1791,7 +1800,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1808,14 +1817,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1831,7 +1840,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1864,7 +1873,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1897,7 +1906,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1907,11 +1916,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1923,14 +1932,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1963,7 +1972,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1973,14 +1982,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1989,14 +1998,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2013,7 +2022,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2029,7 +2038,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2062,7 +2071,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2072,14 +2081,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2088,28 +2097,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>17</v>
@@ -2121,14 +2130,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2145,7 +2154,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2178,7 +2187,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2187,7 +2196,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2204,14 +2213,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>122</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>123</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2220,14 +2229,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2237,14 +2246,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2253,14 +2262,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2270,7 +2279,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2293,7 +2302,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2303,7 +2312,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2326,7 +2335,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2359,7 +2368,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2392,7 +2401,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2402,11 +2411,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2418,14 +2427,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2435,11 +2444,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2458,7 +2467,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2468,11 +2477,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2484,14 +2493,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2501,11 +2510,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2517,14 +2526,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2534,49 +2543,82 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2414.9099999999999</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>151</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>152</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>153</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>29</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>18</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>135</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2604.9099999999999</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>154</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>155</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>156</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2805,10 +2847,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -152,117 +152,126 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>66.0000</t>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>DEXAWEST 60 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>HI-POTENCY FORMULA 30 TABS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>DEXAWEST 60 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>136.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>HI-POTENCY FORMULA 30 TABS.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>10.5000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>178.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
     <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
   </si>
   <si>
@@ -455,25 +464,16 @@
     <t>مرهم اكتيول اسود</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 6:09 PM</t>
+    <t>Thursday, 9 October, 2025 6:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1428,7 +1428,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1454,11 +1454,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>17</v>
@@ -1470,14 +1470,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1487,11 +1487,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1520,11 +1520,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1536,14 +1536,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1553,11 +1553,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>17</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1586,11 +1586,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1619,11 +1619,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1652,11 +1652,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>17</v>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1685,11 +1685,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>17</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1734,14 +1734,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1751,14 +1751,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1767,14 +1767,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1784,14 +1784,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1817,14 +1817,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1854,10 +1854,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>86</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1873,7 +1873,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1906,7 +1906,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1939,7 +1939,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1949,11 +1949,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1965,14 +1965,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2005,7 +2005,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2015,14 +2015,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2031,14 +2031,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2055,7 +2055,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2071,7 +2071,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2104,7 +2104,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2114,14 +2114,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2130,28 +2130,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>17</v>
@@ -2163,14 +2163,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2187,7 +2187,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2220,7 +2220,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2246,14 +2246,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>125</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>126</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2262,14 +2262,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2279,14 +2279,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2295,14 +2295,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2335,7 +2335,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2368,7 +2368,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2401,7 +2401,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2434,7 +2434,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2444,11 +2444,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2460,14 +2460,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2477,11 +2477,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2500,7 +2500,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2510,11 +2510,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2526,14 +2526,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2543,11 +2543,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2559,14 +2559,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2576,49 +2576,82 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2604.9099999999999</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>153</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>29</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>18</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>138</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2672.9099999999999</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
         <v>154</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
         <v>155</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
         <v>156</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2852,10 +2885,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -137,6 +137,18 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -176,9 +188,6 @@
     <t>7:1</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -383,10 +392,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>9:0</t>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1428,7 +1437,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1444,7 +1453,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1454,14 +1463,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1470,14 +1479,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1494,7 +1503,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1510,7 +1519,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1520,7 +1529,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1543,7 +1552,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1560,7 +1569,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1576,7 +1585,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1593,7 +1602,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1609,7 +1618,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1642,7 +1651,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1659,7 +1668,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1675,7 +1684,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1708,7 +1717,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1718,14 +1727,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1734,7 +1743,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1751,11 +1760,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1774,7 +1783,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1791,7 +1800,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1807,7 +1816,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1817,14 +1826,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1833,7 +1842,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1850,14 +1859,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1887,10 +1896,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1906,7 +1915,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1939,7 +1948,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1972,7 +1981,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1982,11 +1991,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1998,14 +2007,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2038,7 +2047,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2048,14 +2057,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2064,14 +2073,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2088,7 +2097,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2104,7 +2113,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2137,7 +2146,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2147,14 +2156,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2163,28 +2172,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>17</v>
@@ -2196,14 +2205,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2220,7 +2229,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2253,7 +2262,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2262,7 +2271,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2279,14 +2288,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>128</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>129</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2295,14 +2304,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2312,14 +2321,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2328,14 +2337,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2345,7 +2354,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2368,7 +2377,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2378,7 +2387,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2401,7 +2410,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2434,7 +2443,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2467,7 +2476,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2477,11 +2486,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2493,14 +2502,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2510,11 +2519,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2533,7 +2542,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2543,11 +2552,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2559,14 +2568,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2576,11 +2585,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2592,14 +2601,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2609,49 +2618,82 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2672.9099999999999</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>154</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>155</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>156</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>29</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>18</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>141</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2682.5900000000001</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>157</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>158</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>159</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2890,10 +2932,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -482,7 +482,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 6:20 PM</t>
+    <t>Thursday, 9 October, 2025 6:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -59,6 +59,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>AM GINKO TAB</t>
   </si>
   <si>
@@ -482,7 +491,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 6:21 PM</t>
+    <t>Thursday, 9 October, 2025 6:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1156,21 +1165,21 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>12</v>
@@ -1182,28 +1191,28 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1215,14 +1224,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1255,7 +1264,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1265,11 +1274,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1281,14 +1290,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1298,11 +1307,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1314,14 +1323,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1354,7 +1363,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1387,7 +1396,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1397,14 +1406,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1413,14 +1422,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1430,14 +1439,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1446,14 +1455,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1463,14 +1472,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1479,14 +1488,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1503,7 +1512,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1519,7 +1528,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1529,14 +1538,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1552,7 +1561,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1562,7 +1571,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1585,7 +1594,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1602,7 +1611,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1618,7 +1627,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1635,7 +1644,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1651,7 +1660,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1684,7 +1693,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1701,7 +1710,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1717,7 +1726,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1734,7 +1743,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1750,7 +1759,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1760,14 +1769,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1776,7 +1785,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1793,11 +1802,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1816,7 +1825,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1833,7 +1842,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1849,7 +1858,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1859,14 +1868,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1875,7 +1884,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1892,14 +1901,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1929,10 +1938,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>92</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1948,7 +1957,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1981,7 +1990,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2014,7 +2023,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2024,11 +2033,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2040,14 +2049,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2080,7 +2089,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2090,14 +2099,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2106,14 +2115,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2130,7 +2139,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2146,7 +2155,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2179,7 +2188,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2189,14 +2198,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2205,31 +2214,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2238,20 +2247,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2262,7 +2271,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2278,13 +2287,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2295,7 +2304,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2304,31 +2313,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>131</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>132</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2337,31 +2346,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2370,24 +2379,24 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2410,17 +2419,17 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2443,13 +2452,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2476,13 +2485,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2509,21 +2518,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2535,28 +2544,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2575,21 +2584,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2601,28 +2610,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2634,66 +2643,99 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2682.5900000000001</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>157</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>158</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>159</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>32</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>21</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>144</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2716.5900000000001</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>160</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>161</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>162</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2937,10 +2979,15 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -491,7 +491,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 6:22 PM</t>
+    <t>Thursday, 9 October, 2025 6:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -68,6 +68,18 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>AM GINKO TAB</t>
   </si>
   <si>
@@ -137,6 +149,15 @@
     <t>141.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
@@ -158,6 +179,15 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -375,9 +405,6 @@
   </si>
   <si>
     <t xml:space="preserve">ZIAFER  30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
   </si>
   <si>
     <t>130.00</t>
@@ -1204,15 +1231,15 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1224,20 +1251,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1264,7 +1291,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1274,11 +1301,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1290,14 +1317,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1363,7 +1390,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1373,11 +1400,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1389,14 +1416,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1406,11 +1433,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1422,14 +1449,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1446,7 +1473,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1462,7 +1489,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1472,14 +1499,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1488,14 +1515,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1505,14 +1532,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1521,7 +1548,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1538,14 +1565,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1554,14 +1581,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1571,14 +1598,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1594,7 +1621,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1604,14 +1631,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1620,14 +1647,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1637,14 +1664,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1653,14 +1680,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1670,11 +1697,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1686,14 +1713,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1703,11 +1730,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1719,14 +1746,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1736,14 +1763,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1752,14 +1779,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1769,14 +1796,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1785,14 +1812,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1802,11 +1829,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1818,7 +1845,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1835,14 +1862,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1851,14 +1878,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1868,14 +1895,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1884,7 +1911,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1901,11 +1928,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1917,7 +1944,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1934,14 +1961,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1950,14 +1977,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1967,14 +1994,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1983,14 +2010,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2000,11 +2027,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2016,14 +2043,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2033,14 +2060,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2049,14 +2076,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2089,7 +2116,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2122,7 +2149,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2132,14 +2159,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2148,14 +2175,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2221,7 +2248,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2231,14 +2258,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2247,31 +2274,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2280,28 +2307,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2313,31 +2340,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2346,31 +2373,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>135</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2379,28 +2406,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2412,31 +2439,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2445,31 +2472,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2478,20 +2505,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2518,17 +2545,17 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2551,21 +2578,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2577,28 +2604,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2610,28 +2637,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2643,28 +2670,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2676,66 +2703,165 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2716.5900000000001</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>160</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>161</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>162</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>165</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>64</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>25</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>163</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>166</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>167</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>25</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>93</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>168</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>36</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>25</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>153</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>3099.5900000000001</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>169</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>170</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>171</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2984,10 +3110,25 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -518,7 +518,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 6:23 PM</t>
+    <t>Thursday, 9 October, 2025 6:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -203,312 +203,339 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>DEXAWEST 60 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>HI-POTENCY FORMULA 30 TABS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>PLATEN CREAM 50 ML</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>REPAION-N GEL 50 GM</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>VERSERC 24MG 30 TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIAFER  30 TAB</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>199:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سويت افوفا</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>لونا انبوبه وسط</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>مرهم اكتيول اسود</t>
+  </si>
+  <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>DEXAWEST 60 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>136.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>HI-POTENCY FORMULA 30 TABS.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>10.5000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>178.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>PLATEN CREAM 50 ML</t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>185.00</t>
-  </si>
-  <si>
-    <t>185.0000</t>
-  </si>
-  <si>
-    <t>REPAION-N GEL 50 GM</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>ROWACHOL 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>VERSERC 24MG 30 TAB</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZIAFER  30 TAB</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>199:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>45:0</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سويت افوفا</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>لونا انبوبه وسط</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>مبرد قدم</t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>مرهم اكتيول اسود</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -518,7 +545,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 6:24 PM</t>
+    <t>Thursday, 9 October, 2025 6:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1654,7 +1681,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1664,11 +1691,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>24</v>
@@ -1680,14 +1707,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1697,14 +1724,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1713,14 +1740,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1730,11 +1757,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1746,14 +1773,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1763,14 +1790,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1779,14 +1806,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1796,14 +1823,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1812,14 +1839,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1829,14 +1856,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1845,14 +1872,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1862,14 +1889,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1878,14 +1905,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1895,14 +1922,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1911,7 +1938,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1928,14 +1955,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1944,14 +1971,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1961,14 +1988,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1977,14 +2004,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1994,14 +2021,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2010,7 +2037,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2027,7 +2054,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2050,7 +2077,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2064,10 +2091,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>102</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2093,11 +2120,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2109,14 +2136,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2126,14 +2153,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2142,14 +2169,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2159,11 +2186,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2175,14 +2202,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2192,11 +2219,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2208,14 +2235,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2225,11 +2252,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2241,14 +2268,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2258,14 +2285,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2274,7 +2301,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2291,14 +2318,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2307,7 +2334,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2324,11 +2351,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2340,14 +2367,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2357,7 +2384,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2380,13 +2407,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2397,7 +2424,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2413,13 +2440,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2446,24 +2473,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>140</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2472,14 +2499,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2489,14 +2516,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>144</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2505,14 +2532,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2522,11 +2549,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2538,14 +2565,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2555,14 +2582,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2571,14 +2598,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2588,14 +2615,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2604,14 +2631,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2621,11 +2648,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2637,14 +2664,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2654,11 +2681,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2670,14 +2697,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2687,11 +2714,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2703,7 +2730,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2720,11 +2747,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2736,14 +2763,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2753,11 +2780,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2769,14 +2796,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2786,11 +2813,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2802,14 +2829,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2819,49 +2846,148 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>3099.5900000000001</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>169</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>170</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>173</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>174</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>25</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
         <v>171</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>175</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>176</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>25</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>98</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>177</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>36</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>25</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>161</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>3264.6500000000001</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>178</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>179</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>180</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3125,10 +3251,25 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -545,7 +545,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 6:48 PM</t>
+    <t>Thursday, 9 October, 2025 6:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -263,6 +263,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FUROSEMIDE-ALEX 40MG 5 I.M. I.V. AMP.</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>22.50</t>
+  </si>
+  <si>
+    <t>22.5000</t>
+  </si>
+  <si>
     <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
   </si>
   <si>
@@ -299,6 +311,18 @@
     <t>10.5000</t>
   </si>
   <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -365,9 +389,6 @@
     <t>PLATEN CREAM 50 ML</t>
   </si>
   <si>
-    <t>-1:0</t>
-  </si>
-  <si>
     <t>185.00</t>
   </si>
   <si>
@@ -497,9 +518,6 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -545,7 +563,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 6:49 PM</t>
+    <t>Thursday, 9 October, 2025 6:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1879,7 +1897,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1889,11 +1907,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1905,14 +1923,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1922,11 +1940,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1938,14 +1956,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1955,14 +1973,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1971,14 +1989,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1988,11 +2006,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -2004,14 +2022,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2021,14 +2039,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2037,7 +2055,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2054,14 +2072,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2070,14 +2088,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2087,14 +2105,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2103,7 +2121,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2120,11 +2138,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2136,14 +2154,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2153,14 +2171,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>107</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2169,7 +2187,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2186,11 +2204,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2202,7 +2220,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2219,14 +2237,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2235,14 +2253,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2252,11 +2270,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2268,14 +2286,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2285,11 +2303,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2301,14 +2319,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2318,14 +2336,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2334,14 +2352,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2351,11 +2369,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2367,14 +2385,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2407,7 +2425,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2440,7 +2458,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2450,14 +2468,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2466,14 +2484,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2483,14 +2501,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2499,31 +2517,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2532,31 +2550,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2565,14 +2583,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2582,14 +2600,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>148</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2622,7 +2640,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2631,14 +2649,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2648,14 +2666,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2664,14 +2682,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2681,14 +2699,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>159</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2704,7 +2722,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2714,11 +2732,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2730,14 +2748,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2747,11 +2765,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2780,11 +2798,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2803,7 +2821,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2813,11 +2831,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2829,14 +2847,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2846,11 +2864,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2862,14 +2880,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2879,11 +2897,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2895,14 +2913,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2912,11 +2930,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2928,14 +2946,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2945,49 +2963,115 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>3264.6500000000001</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>178</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>179</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>180</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>181</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>182</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>25</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>106</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>183</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>36</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>25</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>168</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3317.1500000000001</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>184</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>185</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>186</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3266,10 +3350,20 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALGASON MASSAGE CREAM 40 GM</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -83,9 +98,6 @@
     <t>AM GINKO TAB</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -101,10 +113,10 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>1:1</t>
   </si>
   <si>
     <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
@@ -131,9 +143,6 @@
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -236,6 +245,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -263,132 +281,138 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>FUROSEMIDE-ALEX 40MG 5 I.M. I.V. AMP.</t>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>HI-POTENCY FORMULA 30 TABS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>PLATEN CREAM 50 ML</t>
   </si>
   <si>
     <t>-1:0</t>
   </si>
   <si>
-    <t>22.50</t>
-  </si>
-  <si>
-    <t>22.5000</t>
-  </si>
-  <si>
-    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>HI-POTENCY FORMULA 30 TABS.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>10.5000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>178.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>PLATEN CREAM 50 ML</t>
-  </si>
-  <si>
     <t>185.00</t>
   </si>
   <si>
@@ -440,7 +464,7 @@
     <t>120.00</t>
   </si>
   <si>
-    <t>120.0000</t>
+    <t>159.6000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -458,6 +482,18 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -473,9 +509,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>10:0</t>
   </si>
   <si>
@@ -485,36 +518,39 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>199:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سويت افوفا</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>199:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>45:0</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سويت افوفا</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -524,9 +560,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>لونا انبوبه وسط</t>
   </si>
   <si>
@@ -548,6 +581,12 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
     <t>مرهم اكتيول اسود</t>
   </si>
   <si>
@@ -563,7 +602,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 6:55 PM</t>
+    <t>Thursday, 9 October, 2025 7:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1221,7 +1260,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1230,14 +1269,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1247,14 +1286,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1263,14 +1302,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1280,14 +1319,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1296,20 +1335,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1320,7 +1359,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1336,13 +1375,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1353,7 +1392,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1369,7 +1408,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1379,14 +1418,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1395,14 +1434,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1419,7 +1458,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1452,7 +1491,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1468,7 +1507,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1485,7 +1524,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1501,7 +1540,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1518,7 +1557,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1534,7 +1573,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1551,7 +1590,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1567,7 +1606,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1577,14 +1616,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1593,14 +1632,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1617,7 +1656,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1633,7 +1672,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1643,14 +1682,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1659,14 +1698,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1676,14 +1715,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1692,14 +1731,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1709,14 +1748,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1725,14 +1764,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1742,14 +1781,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1765,7 +1804,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1775,14 +1814,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1798,7 +1837,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1808,14 +1847,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1831,7 +1870,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1848,7 +1887,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1864,7 +1903,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1881,7 +1920,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1897,7 +1936,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1907,14 +1946,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1923,14 +1962,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1940,14 +1979,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1956,14 +1995,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1973,14 +2012,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1989,14 +2028,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2006,14 +2045,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2022,14 +2061,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2039,14 +2078,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2055,14 +2094,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2072,14 +2111,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2088,14 +2127,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2105,14 +2144,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2128,7 +2167,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2145,7 +2184,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2154,14 +2193,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2171,14 +2210,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2187,14 +2226,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2204,14 +2243,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2227,7 +2266,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2241,10 +2280,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2260,7 +2299,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2270,14 +2309,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2286,14 +2325,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2303,11 +2342,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2319,14 +2358,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2336,14 +2375,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2352,14 +2391,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2369,14 +2408,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2385,14 +2424,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2402,14 +2441,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2418,7 +2457,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2435,14 +2474,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2451,14 +2490,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2468,14 +2507,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2484,14 +2523,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2501,14 +2540,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2517,14 +2556,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2534,14 +2573,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2550,14 +2589,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2567,14 +2606,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2590,13 +2629,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2607,7 +2646,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2623,13 +2662,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2640,7 +2679,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2656,24 +2695,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2682,31 +2721,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2715,31 +2754,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2748,31 +2787,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2781,31 +2820,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2814,31 +2853,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2847,20 +2886,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2871,7 +2910,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2887,24 +2926,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2913,31 +2952,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2946,28 +2985,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -2979,31 +3018,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3012,66 +3051,231 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3317.1500000000001</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>184</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>185</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>186</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>187</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>33</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>29</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>188</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>190</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>191</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>29</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>85</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>192</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>193</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>29</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>188</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>194</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>195</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>29</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>111</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>196</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>40</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>29</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>180</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>3510.3299999999999</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>197</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>198</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>199</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3360,10 +3564,35 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -602,7 +602,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 7:05 PM</t>
+    <t>Thursday, 9 October, 2025 7:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -407,171 +407,174 @@
     <t>37.0000</t>
   </si>
   <si>
-    <t>PLATEN CREAM 50 ML</t>
+    <t>PIOSETA HAIR OIL</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>REPAION-N GEL 50 GM</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>VERSERC 24MG 30 TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>159.6000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIAFER  30 TAB</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>199:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سويت افوفا</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>لونا انبوبه وسط</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>مبرد قدم</t>
   </si>
   <si>
     <t>-1:0</t>
   </si>
   <si>
-    <t>185.00</t>
-  </si>
-  <si>
-    <t>185.0000</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>REPAION-N GEL 50 GM</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>ROWACHOL 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>VERSERC 24MG 30 TAB</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>159.6000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZIAFER  30 TAB</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>199:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>45:0</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سويت افوفا</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>لونا انبوبه وسط</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>مبرد قدم</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -602,7 +605,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 7:06 PM</t>
+    <t>Thursday, 9 October, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2497,21 +2500,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2523,7 +2526,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2540,11 +2543,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2556,7 +2559,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2573,11 +2576,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2589,14 +2592,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2606,11 +2609,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2622,7 +2625,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2639,11 +2642,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2655,14 +2658,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2672,14 +2675,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2688,14 +2691,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2705,14 +2708,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2721,28 +2724,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2754,14 +2757,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2771,14 +2774,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2787,14 +2790,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2804,11 +2807,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -2820,7 +2823,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2837,14 +2840,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>166</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2853,7 +2856,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2870,14 +2873,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2886,14 +2889,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2903,14 +2906,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2919,14 +2922,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2936,11 +2939,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -2952,14 +2955,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2969,11 +2972,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -2985,14 +2988,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3002,14 +3005,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3018,14 +3021,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3035,14 +3038,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3051,14 +3054,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3068,11 +3071,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3084,14 +3087,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3101,11 +3104,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3117,14 +3120,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3134,11 +3137,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3150,14 +3153,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3167,11 +3170,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3183,14 +3186,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3200,11 +3203,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3216,14 +3219,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3233,49 +3236,82 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>197</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>40</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>29</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>180</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
         <v>107</v>
       </c>
-      <c t="s" r="Q67" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>3510.3299999999999</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>197</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c t="s" r="Q68" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3534.3299999999999</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
         <v>198</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
         <v>199</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>200</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3589,10 +3625,15 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>DEXAWEST 60 MG 14 CAPS</t>
   </si>
   <si>
@@ -245,6 +254,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>DOLO-D ORAL SUSP. 115 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -401,12 +419,6 @@
     <t>PHENADONE SYRUP 100 ML</t>
   </si>
   <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
     <t>PIOSETA HAIR OIL</t>
   </si>
   <si>
@@ -509,7 +521,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -605,7 +620,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 7:15 PM</t>
+    <t>Thursday, 9 October, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1807,7 +1822,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1817,14 +1832,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1840,7 +1855,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1850,14 +1865,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1873,7 +1888,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1883,14 +1898,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1906,7 +1921,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1939,7 +1954,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1972,7 +1987,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1989,7 +2004,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2005,7 +2020,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2055,7 +2070,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2071,7 +2086,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2088,7 +2103,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2104,7 +2119,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2121,7 +2136,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2137,7 +2152,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2154,7 +2169,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2187,7 +2202,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2196,14 +2211,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2213,14 +2228,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2229,7 +2244,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2246,14 +2261,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2262,14 +2277,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2279,14 +2294,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2312,11 +2327,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2328,14 +2343,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2345,14 +2360,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2361,7 +2376,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2378,11 +2393,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2394,7 +2409,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2411,14 +2426,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2467,7 +2482,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2500,13 +2515,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2533,7 +2548,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2543,14 +2558,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2559,28 +2574,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2592,14 +2607,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,11 +2624,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2625,14 +2640,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,11 +2657,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2658,14 +2673,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2675,14 +2690,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2698,7 +2713,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2715,7 +2730,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2731,7 +2746,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,14 +2756,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2757,31 +2772,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2790,31 +2805,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2823,14 +2838,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2840,14 +2855,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2856,14 +2871,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,14 +2888,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>166</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2889,7 +2904,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2906,14 +2921,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>170</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2922,14 +2937,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2939,14 +2954,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2955,14 +2970,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2972,14 +2987,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2988,14 +3003,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3005,11 +3020,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3021,14 +3036,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3038,14 +3053,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3061,7 +3076,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3071,11 +3086,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3094,7 +3109,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3104,14 +3119,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3127,7 +3142,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3170,11 +3185,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3193,7 +3208,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3203,11 +3218,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3219,14 +3234,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3236,11 +3251,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3252,14 +3267,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3269,49 +3284,115 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3534.3299999999999</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>198</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>199</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>200</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>201</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>29</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>117</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>202</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>40</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>29</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>185</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3613.3299999999999</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>203</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>204</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>205</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3630,10 +3711,20 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -620,7 +620,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 7:43 PM</t>
+    <t>Thursday, 9 October, 2025 7:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -128,6 +128,18 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -143,9 +155,6 @@
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>78.0000</t>
   </si>
   <si>
@@ -188,6 +197,18 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>2:12</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -473,9 +494,6 @@
     <t>VERSERC 24MG 30 TAB</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>159.6000</t>
   </si>
   <si>
@@ -521,10 +539,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -569,6 +584,12 @@
     <t>30.00</t>
   </si>
   <si>
+    <t>غيار عيون</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -620,7 +641,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 7:44 PM</t>
+    <t>Thursday, 9 October, 2025 7:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1509,7 +1530,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1525,7 +1546,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1535,11 +1556,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1551,14 +1572,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1568,7 +1589,7 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1624,7 +1645,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1657,7 +1678,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1667,14 +1688,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1683,14 +1704,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1707,7 +1728,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1756,7 +1777,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1766,14 +1787,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1782,14 +1803,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1799,11 +1820,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1815,14 +1836,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1832,14 +1853,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1848,14 +1869,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1865,11 +1886,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1881,14 +1902,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1898,11 +1919,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1914,14 +1935,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1931,14 +1952,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1947,14 +1968,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1964,14 +1985,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1980,14 +2001,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1997,11 +2018,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -2013,14 +2034,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2030,11 +2051,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2046,14 +2067,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2063,14 +2084,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2079,14 +2100,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2096,11 +2117,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2112,7 +2133,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2129,14 +2150,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2145,14 +2166,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2162,14 +2183,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2178,14 +2199,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2195,14 +2216,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2211,14 +2232,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2228,14 +2249,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2244,7 +2265,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2261,14 +2282,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2284,7 +2305,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2294,14 +2315,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2310,7 +2331,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2327,14 +2348,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2343,14 +2364,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2360,14 +2381,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2376,7 +2397,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2393,11 +2414,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2409,14 +2430,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2426,14 +2447,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2442,7 +2463,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2459,11 +2480,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2475,7 +2496,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2492,14 +2513,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2508,7 +2529,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2525,11 +2546,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2541,14 +2562,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2558,11 +2579,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2574,28 +2595,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2607,14 +2628,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2624,14 +2645,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2640,28 +2661,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2673,14 +2694,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2713,7 +2734,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2746,7 +2767,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2756,14 +2777,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2772,14 +2793,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2789,14 +2810,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2805,14 +2826,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2822,14 +2843,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2838,31 +2859,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2871,31 +2892,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2904,14 +2925,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2921,14 +2942,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2937,14 +2958,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2961,7 +2982,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>171</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2970,7 +2991,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2987,14 +3008,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>175</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3003,14 +3024,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3020,14 +3041,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3036,14 +3057,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3053,14 +3074,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3069,14 +3090,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3086,11 +3107,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3102,14 +3123,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3119,14 +3140,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3142,7 +3163,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3152,11 +3173,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3175,7 +3196,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3185,14 +3206,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3222,10 +3243,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3234,14 +3255,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3251,11 +3272,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3288,7 +3309,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3307,7 +3328,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3317,11 +3338,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3333,14 +3354,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3350,49 +3371,148 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3613.3299999999999</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>203</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>204</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>205</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>206</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>29</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>201</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>207</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>208</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>29</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>124</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>209</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>44</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>29</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>190</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3659.4099999999999</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>210</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>211</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>212</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3721,10 +3841,25 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -503,6 +503,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZIAFER  30 TAB</t>
   </si>
   <si>
@@ -530,7 +542,7 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -539,7 +551,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -617,9 +632,6 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -641,7 +653,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 7:50 PM</t>
+    <t>Thursday, 9 October, 2025 7:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2932,24 +2944,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2958,14 +2970,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2982,7 +2994,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2998,7 +3010,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3008,11 +3020,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3024,7 +3036,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3041,14 +3053,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3057,7 +3069,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3074,14 +3086,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3090,14 +3102,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3114,7 +3126,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3123,14 +3135,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3140,11 +3152,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3156,14 +3168,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3173,11 +3185,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3189,14 +3201,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3206,14 +3218,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>189</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3222,14 +3234,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3239,14 +3251,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3255,14 +3267,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3272,14 +3284,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3288,14 +3300,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3305,11 +3317,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3321,14 +3333,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3338,11 +3350,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3354,14 +3366,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3371,11 +3383,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3387,14 +3399,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3404,11 +3416,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3420,14 +3432,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3437,11 +3449,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3453,14 +3465,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3470,49 +3482,82 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>213</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>44</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>29</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>195</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
         <v>120</v>
       </c>
-      <c t="s" r="Q73" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3659.4099999999999</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>210</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>211</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
-        <v>212</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c t="s" r="Q74" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3721.4099999999999</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>214</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>215</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>216</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3856,10 +3901,15 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -653,7 +653,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 7:51 PM</t>
+    <t>Thursday, 9 October, 2025 7:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -410,6 +410,15 @@
     <t>23.00</t>
   </si>
   <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
@@ -506,13 +515,13 @@
     <t>XORAXON 1GM I.V. VIAL</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>56.00</t>
   </si>
   <si>
-    <t>56.0000</t>
+    <t>112.0000</t>
   </si>
   <si>
     <t xml:space="preserve">ZIAFER  30 TAB</t>
@@ -542,96 +551,90 @@
     <t>4.00</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>199:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سويت افوفا</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>غيار عيون</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>لونا انبوبه وسط</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>8.0000</t>
   </si>
   <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>199:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>45:0</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سويت افوفا</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>غيار عيون</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>لونا انبوبه وسط</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>مبرد قدم</t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -641,9 +644,6 @@
     <t>مرهم اكتيول اسود</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -653,7 +653,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 7:54 PM</t>
+    <t>Thursday, 9 October, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2565,7 +2565,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2647,7 +2647,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2657,11 +2657,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2673,28 +2673,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2719,7 +2719,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2730,7 +2730,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2746,7 +2746,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2763,7 +2763,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2779,7 +2779,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2789,14 +2789,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2805,14 +2805,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2829,7 +2829,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2845,7 +2845,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2855,11 +2855,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -2871,14 +2871,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2888,14 +2888,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2904,14 +2904,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2921,14 +2921,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2937,14 +2937,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2954,14 +2954,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2970,20 +2970,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2994,7 +2994,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3010,7 +3010,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3020,14 +3020,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3036,14 +3036,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3060,7 +3060,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3093,7 +3093,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>181</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3119,14 +3119,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>185</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3135,14 +3135,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3152,14 +3152,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3168,14 +3168,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3185,11 +3185,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3201,14 +3201,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3218,11 +3218,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3234,14 +3234,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3251,14 +3251,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>194</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3267,14 +3267,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3284,14 +3284,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3300,14 +3300,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3317,14 +3317,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3333,14 +3333,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3350,11 +3350,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3366,14 +3366,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3383,11 +3383,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3399,14 +3399,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3416,11 +3416,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3432,14 +3432,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3449,11 +3449,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3465,14 +3465,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3482,11 +3482,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3498,14 +3498,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3515,49 +3515,82 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>213</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>44</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>29</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>195</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
         <v>120</v>
       </c>
-      <c t="s" r="Q74" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3721.4099999999999</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
+      <c t="s" r="Q75" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3814.4099999999999</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
         <v>214</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
         <v>215</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
         <v>216</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3906,10 +3939,15 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -446,6 +446,15 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>PENDULINE كريم ب زبدة الشيا</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
     <t>PHENADONE SYRUP 100 ML</t>
   </si>
   <si>
@@ -500,6 +509,9 @@
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
+    <t>VENTAMOR FACIAL WASH</t>
+  </si>
+  <si>
     <t>VERSERC 24MG 30 TAB</t>
   </si>
   <si>
@@ -653,7 +665,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 7:56 PM</t>
+    <t>Thursday, 9 October, 2025 7:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2680,21 +2692,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2706,28 +2718,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2752,7 +2764,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2763,7 +2775,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2779,7 +2791,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2796,7 +2808,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2812,7 +2824,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2822,14 +2834,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2862,7 +2874,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2878,7 +2890,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2888,11 +2900,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -2904,14 +2916,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2921,14 +2933,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2937,31 +2949,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2977,7 +2989,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2987,14 +2999,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3003,28 +3015,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3036,31 +3048,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3069,14 +3081,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3086,14 +3098,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3102,14 +3114,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3119,14 +3131,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3135,7 +3147,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3152,14 +3164,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>168</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3168,14 +3180,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3185,14 +3197,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3201,14 +3213,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3218,14 +3230,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3234,14 +3246,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3251,11 +3263,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3267,14 +3279,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3284,14 +3296,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>194</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3300,14 +3312,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3324,7 +3336,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3340,7 +3352,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3354,10 +3366,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3373,7 +3385,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3383,14 +3395,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3399,14 +3411,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3416,11 +3428,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3432,14 +3444,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3449,11 +3461,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3465,14 +3477,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3482,11 +3494,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3498,14 +3510,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3515,11 +3527,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3531,14 +3543,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3548,49 +3560,115 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>215</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>216</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>29</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>124</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>217</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>44</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>29</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>199</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
         <v>120</v>
       </c>
-      <c t="s" r="Q75" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3814.4099999999999</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>214</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>215</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>216</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c t="s" r="Q77" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4169.4099999999999</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>218</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>219</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>220</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3944,10 +4022,20 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -572,13 +572,19 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>24:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>21.0000</t>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -665,7 +671,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 7:57 PM</t>
+    <t>Thursday, 9 October, 2025 7:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3201,10 +3207,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>74</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3213,7 +3219,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3230,14 +3236,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3246,14 +3252,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3263,11 +3269,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3279,14 +3285,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3296,11 +3302,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3312,14 +3318,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3329,7 +3335,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3345,7 +3351,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3362,14 +3368,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3378,7 +3384,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3395,7 +3401,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3411,14 +3417,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3428,7 +3434,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3444,14 +3450,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3461,11 +3467,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3477,7 +3483,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3494,11 +3500,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3510,14 +3516,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3543,7 +3549,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3560,11 +3566,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3576,14 +3582,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3609,7 +3615,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3626,7 +3632,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3638,13 +3644,13 @@
     </row>
     <row r="78" ht="24.75" customHeight="1">
       <c r="P78" s="13">
-        <v>4169.4099999999999</v>
+        <v>4204.4099999999999</v>
       </c>
       <c r="Q78" s="13"/>
     </row>
     <row r="79" ht="16.5" customHeight="1">
       <c t="s" r="A79" s="14">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -3652,13 +3658,13 @@
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c t="s" r="G79" s="15">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
       <c r="J79" s="16"/>
       <c t="s" r="K79" s="17">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L79" s="17"/>
       <c r="M79" s="17"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -671,7 +671,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 7:59 PM</t>
+    <t>Thursday, 9 October, 2025 8:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -428,6 +428,12 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>OCTATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
   </si>
   <si>
@@ -608,6 +614,12 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سويت افوفا</t>
   </si>
   <si>
@@ -671,7 +683,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 8:00 PM</t>
+    <t>Thursday, 9 October, 2025 8:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2632,7 +2644,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2642,14 +2654,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2658,7 +2670,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2675,11 +2687,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2691,28 +2703,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2724,28 +2736,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2757,28 +2769,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2790,7 +2802,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2803,18 +2815,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2823,14 +2835,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2840,14 +2852,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2856,14 +2868,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2873,14 +2885,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2889,14 +2901,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2906,14 +2918,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2922,14 +2934,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2939,11 +2951,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -2955,28 +2967,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -2988,31 +3000,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3028,7 +3040,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3038,14 +3050,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3061,7 +3073,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3071,14 +3083,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3087,31 +3099,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3120,14 +3132,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3137,14 +3149,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3153,14 +3165,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3170,14 +3182,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3186,7 +3198,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3203,14 +3215,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>187</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3219,7 +3231,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3236,14 +3248,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3252,14 +3264,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3269,14 +3281,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3285,14 +3297,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3302,11 +3314,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3318,14 +3330,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3335,11 +3347,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3351,14 +3363,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3368,14 +3380,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>200</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3384,14 +3396,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3408,7 +3420,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3424,7 +3436,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3438,10 +3450,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3457,7 +3469,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3467,14 +3479,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3483,14 +3495,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3500,11 +3512,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3516,14 +3528,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3533,11 +3545,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3549,14 +3561,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3566,11 +3578,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3582,14 +3594,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3599,11 +3611,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3615,14 +3627,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3632,49 +3644,115 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>221</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>222</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>29</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>124</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>223</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>44</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>29</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>205</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
         <v>120</v>
       </c>
-      <c t="s" r="Q77" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4204.4099999999999</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>220</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>221</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
-        <v>222</v>
-      </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c t="s" r="Q79" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>4252.96</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>224</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>225</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>226</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4038,10 +4116,20 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -683,7 +683,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 8:04 PM</t>
+    <t>Thursday, 9 October, 2025 8:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -257,6 +257,9 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
     <t>DEXAWEST 60 MG 14 CAPS</t>
   </si>
   <si>
@@ -320,6 +323,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FOSAMAX TAB</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -347,6 +359,15 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>HI-POTENCY FORMULA 30 TABS.</t>
   </si>
   <si>
@@ -368,9 +389,6 @@
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -434,6 +452,15 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
   </si>
   <si>
@@ -452,6 +479,15 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>PEDICAL PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>PENDULINE كريم ب زبدة الشيا</t>
   </si>
   <si>
@@ -485,12 +521,6 @@
     <t>REPAION-N GEL 50 GM</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>ROWACHOL 45 CAPSULES</t>
   </si>
   <si>
@@ -503,6 +533,15 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -683,7 +722,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 8:06 PM</t>
+    <t>Thursday, 9 October, 2025 8:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1984,7 +2023,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1994,14 +2033,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2010,14 +2049,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2027,14 +2066,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2043,14 +2082,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2060,11 +2099,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -2076,14 +2115,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2093,14 +2132,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2109,7 +2148,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2126,14 +2165,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2142,14 +2181,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2159,14 +2198,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2175,14 +2214,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2192,11 +2231,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2208,14 +2247,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2225,11 +2264,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2241,7 +2280,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2254,15 +2293,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2274,14 +2313,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2291,14 +2330,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2307,14 +2346,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2324,14 +2363,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2340,14 +2379,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2357,14 +2396,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2373,14 +2412,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2390,14 +2429,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2406,7 +2445,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2423,14 +2462,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2439,14 +2478,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2456,14 +2495,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2472,14 +2511,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2489,14 +2528,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2505,7 +2544,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2522,11 +2561,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2538,7 +2577,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2555,14 +2594,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2571,14 +2610,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2588,11 +2627,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2604,7 +2643,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2621,11 +2660,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2637,14 +2676,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2654,14 +2693,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2670,7 +2709,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2687,14 +2726,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2703,7 +2742,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2720,11 +2759,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2736,31 +2775,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2769,14 +2808,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2786,14 +2825,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2802,28 +2841,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -2835,14 +2874,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2852,14 +2891,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2868,14 +2907,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2885,11 +2924,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -2901,31 +2940,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2934,14 +2973,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2951,11 +2990,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -2967,28 +3006,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3000,7 +3039,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3013,18 +3052,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3040,7 +3079,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3050,14 +3089,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3066,14 +3105,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3083,11 +3122,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3099,14 +3138,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3123,7 +3162,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3139,13 +3178,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3156,7 +3195,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3172,21 +3211,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3198,7 +3237,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3215,14 +3254,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3231,31 +3270,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>189</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3264,31 +3303,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3297,31 +3336,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3330,14 +3369,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3351,10 +3390,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3363,14 +3402,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3380,11 +3419,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3396,14 +3435,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3413,14 +3452,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3429,14 +3468,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3446,14 +3485,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3462,7 +3501,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3479,14 +3518,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3495,14 +3534,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3512,11 +3551,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3528,14 +3567,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3545,11 +3584,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3561,7 +3600,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3578,11 +3617,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3594,14 +3633,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3611,11 +3650,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3627,14 +3666,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3644,14 +3683,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>217</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3667,7 +3706,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3677,14 +3716,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3700,7 +3739,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3710,49 +3749,247 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>4252.96</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>224</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>225</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
         <v>226</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>29</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>222</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>228</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>33</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>29</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>229</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>231</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>232</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>29</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>99</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>233</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>187</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>29</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>229</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>234</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>235</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>29</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>130</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>236</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>44</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>29</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>218</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4644.1099999999997</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>237</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>238</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>239</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4126,10 +4363,40 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -722,7 +722,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 8:09 PM</t>
+    <t>Thursday, 9 October, 2025 8:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -296,6 +296,12 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -398,6 +404,18 @@
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -569,6 +587,9 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
     <t>XORAXON 1GM I.V. VIAL</t>
   </si>
   <si>
@@ -707,7 +728,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>مرهم اكتيول اسود</t>
@@ -722,7 +743,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 8:10 PM</t>
+    <t>Thursday, 9 October, 2025 8:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2202,7 +2223,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -2214,14 +2235,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2231,14 +2252,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2247,14 +2268,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2264,11 +2285,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2280,7 +2301,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2293,18 +2314,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2313,31 +2334,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2346,14 +2367,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2363,14 +2384,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2379,14 +2400,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2396,11 +2417,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2412,7 +2433,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2429,11 +2450,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2445,14 +2466,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2462,14 +2483,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2478,14 +2499,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2495,11 +2516,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2511,14 +2532,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2528,14 +2549,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2544,7 +2565,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2561,14 +2582,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2577,7 +2598,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2594,11 +2615,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2610,14 +2631,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2634,7 +2655,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2660,11 +2681,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2676,14 +2697,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2693,14 +2714,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2709,7 +2730,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2726,14 +2747,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2742,7 +2763,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2759,14 +2780,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2782,7 +2803,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2792,11 +2813,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2808,14 +2829,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2825,14 +2846,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2841,14 +2862,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2858,14 +2879,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2881,7 +2902,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2898,7 +2919,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2914,7 +2935,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2947,13 +2968,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2980,7 +3001,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2990,11 +3011,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3006,7 +3027,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3023,11 +3044,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3039,14 +3060,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3056,14 +3077,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3079,21 +3100,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3105,14 +3126,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3122,11 +3143,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3138,14 +3159,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3155,11 +3176,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3171,14 +3192,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3195,7 +3216,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3221,11 +3242,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3237,7 +3258,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3250,15 +3271,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3270,14 +3291,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3287,14 +3308,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3303,31 +3324,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3336,14 +3357,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3353,14 +3374,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3376,21 +3397,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3402,28 +3423,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3435,31 +3456,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3468,14 +3489,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3485,14 +3506,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3501,14 +3522,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3518,14 +3539,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>206</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3534,14 +3555,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3551,14 +3572,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3567,14 +3588,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3584,14 +3605,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3600,7 +3621,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3617,14 +3638,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3633,14 +3654,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3650,11 +3671,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3666,14 +3687,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3683,14 +3704,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>217</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3716,14 +3737,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3739,7 +3760,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3749,11 +3770,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3765,14 +3786,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3782,14 +3803,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3819,10 +3840,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3831,14 +3852,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3848,11 +3869,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3864,14 +3885,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3885,7 +3906,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3897,14 +3918,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3914,11 +3935,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -3930,14 +3951,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3947,49 +3968,148 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4644.1099999999997</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>240</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>194</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>29</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>236</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>237</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
-        <v>238</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
-        <v>239</v>
-      </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c t="s" r="Q86" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>241</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>242</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>29</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>136</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>243</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>44</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>29</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>225</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4858.1099999999997</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>244</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>245</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>246</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4393,10 +4513,25 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -176,6 +176,15 @@
     <t>210.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
@@ -248,18 +257,36 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>36.0000</t>
+    <t>5:1</t>
   </si>
   <si>
     <t>DEVAROL-S 200000 I.U AMPOULE</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>DEXAWEST 60 MG 14 CAPS</t>
   </si>
   <si>
@@ -338,6 +365,18 @@
     <t>62.7500</t>
   </si>
   <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -410,9 +449,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>57.00</t>
-  </si>
-  <si>
     <t>57.0000</t>
   </si>
   <si>
@@ -500,9 +536,6 @@
     <t>PEDICAL PLUS SYRUP 100 ML</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
     <t>65.0000</t>
   </si>
   <si>
@@ -614,87 +647,90 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>21:0</t>
+    <t>20:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>199:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سويت افوفا</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>غيار عيون</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>199:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>45:0</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>سويت افوفا</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>غيار عيون</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -728,9 +764,6 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>18:0</t>
-  </si>
-  <si>
     <t>مرهم اكتيول اسود</t>
   </si>
   <si>
@@ -743,7 +776,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 8:13 PM</t>
+    <t>Thursday, 9 October, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1780,7 +1813,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1797,7 +1830,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1813,7 +1846,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1823,14 +1856,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1839,14 +1872,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1856,11 +1889,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1872,14 +1905,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1896,7 +1929,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1912,7 +1945,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1922,14 +1955,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1938,14 +1971,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1955,14 +1988,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1971,14 +2004,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1988,14 +2021,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2004,14 +2037,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2021,14 +2054,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2044,7 +2077,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2054,14 +2087,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2070,14 +2103,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2087,14 +2120,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2103,14 +2136,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2120,11 +2153,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -2136,14 +2169,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2160,7 +2193,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2209,7 +2242,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2219,11 +2252,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -2235,14 +2268,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2252,11 +2285,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2268,14 +2301,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2285,11 +2318,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2301,14 +2334,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2318,14 +2351,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2341,13 +2374,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2374,7 +2407,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2424,7 +2457,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2440,13 +2473,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2473,7 +2506,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2483,11 +2516,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2499,14 +2532,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2516,11 +2549,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2532,7 +2565,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2549,14 +2582,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2565,14 +2598,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2582,14 +2615,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2598,14 +2631,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2615,11 +2648,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2631,14 +2664,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2648,14 +2681,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2664,14 +2697,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2681,14 +2714,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2697,14 +2730,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2714,14 +2747,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2730,7 +2763,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2747,11 +2780,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2763,14 +2796,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2780,14 +2813,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2796,7 +2829,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2813,14 +2846,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2829,14 +2862,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2846,14 +2879,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2862,14 +2895,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2879,14 +2912,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2895,14 +2928,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2912,14 +2945,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2928,7 +2961,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2945,14 +2978,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2961,7 +2994,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2978,11 +3011,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -2994,14 +3027,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3011,14 +3044,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3034,13 +3067,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3051,7 +3084,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3067,7 +3100,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3077,11 +3110,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3093,28 +3126,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3126,7 +3159,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3143,14 +3176,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3159,28 +3192,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3192,14 +3225,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3209,14 +3242,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3232,13 +3265,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3282,7 +3315,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3298,7 +3331,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3308,11 +3341,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3331,24 +3364,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3357,14 +3390,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3374,14 +3407,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3390,14 +3423,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3407,14 +3440,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3423,14 +3456,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3440,11 +3473,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3456,31 +3489,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3489,31 +3522,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>67</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3522,31 +3555,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3555,31 +3588,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3588,31 +3621,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>209</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3621,14 +3654,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3638,14 +3671,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3654,14 +3687,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3671,14 +3704,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3687,14 +3720,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3704,14 +3737,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3720,7 +3753,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3737,14 +3770,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3753,14 +3786,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3770,14 +3803,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3793,7 +3826,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3803,14 +3836,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>224</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3819,14 +3852,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3836,14 +3869,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3852,14 +3885,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3869,11 +3902,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3885,14 +3918,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3902,11 +3935,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3918,14 +3951,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3935,14 +3968,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3951,14 +3984,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3968,14 +4001,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3984,14 +4017,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4001,11 +4034,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4017,14 +4050,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4034,11 +4067,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>136</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4050,14 +4083,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4067,49 +4100,181 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>128</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4858.1099999999997</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>244</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>245</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
-        <v>246</v>
-      </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>250</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>77</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>29</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>110</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>251</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>205</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>29</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>248</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>252</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>253</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>29</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>148</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>254</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>44</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>29</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>236</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>5059.6350000000002</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>255</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>256</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>257</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4528,10 +4693,30 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -440,6 +440,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -722,6 +731,18 @@
     <t>30.00</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>غيار عيون</t>
   </si>
   <si>
@@ -776,7 +797,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 8:18 PM</t>
+    <t>Thursday, 9 October, 2025 8:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2770,7 +2791,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2780,11 +2801,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2796,14 +2817,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2813,11 +2834,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2836,7 +2857,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2846,7 +2867,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2869,7 +2890,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2886,7 +2907,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2902,7 +2923,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2912,14 +2933,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2928,7 +2949,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2945,14 +2966,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2961,7 +2982,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2978,14 +2999,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3018,7 +3039,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3034,7 +3055,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3044,14 +3065,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3060,14 +3081,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3077,7 +3098,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3100,7 +3121,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3117,7 +3138,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3166,7 +3187,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3176,11 +3197,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3192,7 +3213,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3205,11 +3226,11 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3232,21 +3253,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3258,28 +3279,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3304,7 +3325,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3315,7 +3336,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3331,7 +3352,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3341,14 +3362,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3357,14 +3378,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3374,14 +3395,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3390,14 +3411,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3414,7 +3435,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3430,7 +3451,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3463,7 +3484,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3473,11 +3494,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3489,28 +3510,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3522,31 +3543,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3555,14 +3576,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3572,14 +3593,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3588,14 +3609,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3605,14 +3626,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3621,14 +3642,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3638,14 +3659,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3654,20 +3675,20 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3678,7 +3699,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3694,7 +3715,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3704,14 +3725,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3720,14 +3741,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3744,7 +3765,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3777,7 +3798,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>221</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3786,7 +3807,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3803,14 +3824,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q79" s="12">
         <v>224</v>
-      </c>
-      <c t="s" r="Q79" s="12">
-        <v>225</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3819,14 +3840,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3836,14 +3857,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3852,14 +3873,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3869,7 +3890,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -3892,7 +3913,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3902,11 +3923,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3918,14 +3939,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3935,11 +3956,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3951,14 +3972,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3968,14 +3989,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3991,7 +4012,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4001,14 +4022,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4017,14 +4038,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4034,14 +4055,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>159</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4050,14 +4071,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4067,14 +4088,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4083,14 +4104,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4100,11 +4121,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4116,14 +4137,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4133,14 +4154,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4149,14 +4170,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4166,11 +4187,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4182,14 +4203,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4199,14 +4220,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4215,14 +4236,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4232,49 +4253,115 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>259</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>260</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>29</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>151</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>261</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>44</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>29</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>239</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
         <v>141</v>
       </c>
-      <c t="s" r="Q92" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>5059.6350000000002</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>255</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>256</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>257</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c t="s" r="Q94" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5117.6350000000002</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>262</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>263</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>264</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4713,10 +4800,20 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -734,7 +734,7 @@
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
-    <t>26:0</t>
+    <t>27:0</t>
   </si>
   <si>
     <t>6.00</t>
@@ -2791,7 +2791,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -452,6 +452,15 @@
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -797,7 +806,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 8:19 PM</t>
+    <t>Thursday, 9 October, 2025 8:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2857,7 +2866,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2867,14 +2876,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2890,7 +2899,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2900,7 +2909,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2923,7 +2932,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2940,7 +2949,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2956,7 +2965,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2966,14 +2975,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2982,7 +2991,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2999,14 +3008,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3015,7 +3024,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3032,14 +3041,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3072,7 +3081,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3088,7 +3097,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3098,14 +3107,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3114,14 +3123,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3131,7 +3140,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3154,7 +3163,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3171,7 +3180,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3220,7 +3229,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3230,11 +3239,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3246,7 +3255,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3259,11 +3268,11 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3286,21 +3295,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3312,28 +3321,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3358,7 +3367,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3369,7 +3378,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3385,7 +3394,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3395,14 +3404,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3411,14 +3420,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,14 +3437,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3444,14 +3453,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3468,7 +3477,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3484,7 +3493,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3517,7 +3526,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3527,11 +3536,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3543,28 +3552,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3576,31 +3585,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3609,14 +3618,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3626,14 +3635,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3659,14 +3668,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3675,14 +3684,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3692,14 +3701,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3708,20 +3717,20 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3732,7 +3741,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3748,7 +3757,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3758,14 +3767,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3774,14 +3783,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3798,7 +3807,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3831,7 +3840,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>224</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3840,7 +3849,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3857,14 +3866,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q80" s="12">
         <v>227</v>
-      </c>
-      <c t="s" r="Q80" s="12">
-        <v>228</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3873,14 +3882,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>33</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,14 +3899,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3923,7 +3932,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -3946,7 +3955,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3956,11 +3965,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3989,11 +3998,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>119</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4026,7 +4035,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4038,14 +4047,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4062,7 +4071,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4078,7 +4087,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4092,10 +4101,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>44</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4104,14 +4113,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4121,14 +4130,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4137,14 +4146,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4154,11 +4163,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4177,7 +4186,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4187,7 +4196,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4210,7 +4219,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4220,14 +4229,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>110</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>114</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4236,14 +4245,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4253,14 +4262,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4269,14 +4278,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4286,11 +4295,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>152</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4302,14 +4311,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4319,49 +4328,82 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>264</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>44</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>29</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>242</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
         <v>141</v>
       </c>
-      <c t="s" r="Q94" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5117.6350000000002</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>262</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>263</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>264</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c t="s" r="Q95" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5156.2449999999999</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>265</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>266</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>267</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4810,10 +4852,15 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -449,6 +449,12 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -806,7 +812,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 8:24 PM</t>
+    <t>Thursday, 9 October, 2025 8:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2833,24 +2839,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2859,14 +2865,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2876,14 +2882,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2892,14 +2898,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2909,14 +2915,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2925,14 +2931,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2942,11 +2948,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -2958,14 +2964,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2975,14 +2981,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2991,14 +2997,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3008,14 +3014,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3041,14 +3047,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3078,10 +3084,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3090,7 +3096,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3107,14 +3113,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3123,14 +3129,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3140,14 +3146,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3163,7 +3169,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3173,11 +3179,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3189,14 +3195,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3206,14 +3212,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3222,7 +3228,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3239,11 +3245,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3255,14 +3261,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3272,7 +3278,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3301,15 +3307,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3321,28 +3327,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3354,28 +3360,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3387,7 +3393,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3400,18 +3406,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3420,14 +3426,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3437,14 +3443,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3453,14 +3459,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3470,14 +3476,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3486,14 +3492,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3503,14 +3509,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3519,14 +3525,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3536,11 +3542,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3552,14 +3558,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3569,11 +3575,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3585,28 +3591,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3618,31 +3624,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3658,7 +3664,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3668,14 +3674,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3691,7 +3697,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3701,14 +3707,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3717,14 +3723,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3734,14 +3740,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3750,31 +3756,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3783,14 +3789,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3800,14 +3806,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3816,14 +3822,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3833,14 +3839,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3849,7 +3855,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3866,14 +3872,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>227</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3882,7 +3888,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3899,14 +3905,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3915,14 +3921,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3932,14 +3938,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3948,14 +3954,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3965,11 +3971,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3981,14 +3987,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3998,7 +4004,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4021,7 +4027,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4031,11 +4037,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4054,7 +4060,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>119</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4064,11 +4070,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4080,14 +4086,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4097,14 +4103,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4113,14 +4119,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4130,14 +4136,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>44</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4153,7 +4159,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4167,10 +4173,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4186,7 +4192,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4196,11 +4202,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4212,14 +4218,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4229,11 +4235,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4245,14 +4251,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4262,14 +4268,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>114</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4278,14 +4284,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4295,14 +4301,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4311,14 +4317,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4328,11 +4334,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>154</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>155</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4351,7 +4357,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>44</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4361,49 +4367,82 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>266</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>44</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>29</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>244</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
         <v>141</v>
       </c>
-      <c t="s" r="Q95" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5156.2449999999999</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>265</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>266</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c t="s" r="Q96" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5270.2449999999999</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
         <v>267</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>268</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>269</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4857,10 +4896,15 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -452,7 +452,7 @@
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
-    <t>114.0000</t>
+    <t>57.0000</t>
   </si>
   <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
@@ -473,9 +473,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>57.0000</t>
-  </si>
-  <si>
     <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -680,6 +677,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>حفاضات كبار سن جير ميني 36ق</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>22.5000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -812,7 +821,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 8:25 PM</t>
+    <t>Thursday, 9 October, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2839,7 +2848,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2856,7 +2865,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2952,7 +2961,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -2964,7 +2973,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2981,11 +2990,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -2997,7 +3006,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3014,11 +3023,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3030,7 +3039,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3051,7 +3060,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3063,7 +3072,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3080,7 +3089,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3096,7 +3105,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3113,11 +3122,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3129,7 +3138,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3146,11 +3155,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3162,7 +3171,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3183,7 +3192,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3195,7 +3204,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3212,11 +3221,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3228,7 +3237,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3245,11 +3254,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3261,7 +3270,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3278,11 +3287,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3294,7 +3303,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3315,7 +3324,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3327,7 +3336,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3344,11 +3353,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3360,7 +3369,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3393,7 +3402,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3410,11 +3419,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3426,7 +3435,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3443,11 +3452,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3459,7 +3468,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3480,7 +3489,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3492,14 +3501,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3509,11 +3518,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3525,7 +3534,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3542,11 +3551,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3558,7 +3567,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3575,11 +3584,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3591,7 +3600,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3612,7 +3621,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3624,7 +3633,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3657,7 +3666,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3678,7 +3687,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>35</v>
@@ -3690,7 +3699,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3711,7 +3720,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3723,7 +3732,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3756,14 +3765,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3773,11 +3782,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3789,7 +3798,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3806,11 +3815,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3822,14 +3831,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3839,11 +3848,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3855,14 +3864,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>223</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3879,7 +3888,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>44</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3912,7 +3921,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>229</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3921,7 +3930,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3938,14 +3947,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>232</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>233</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3954,14 +3963,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3971,14 +3980,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3987,14 +3996,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4004,7 +4013,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4027,7 +4036,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4037,11 +4046,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4053,14 +4062,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4070,11 +4079,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4086,14 +4095,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>119</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4107,7 +4116,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4119,14 +4128,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4143,7 +4152,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4159,7 +4168,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4173,10 +4182,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>46</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>44</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4185,14 +4194,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4202,14 +4211,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4218,14 +4227,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>119</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4235,11 +4244,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4258,7 +4267,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4268,7 +4277,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4291,7 +4300,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4301,14 +4310,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>110</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4317,14 +4326,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4334,14 +4343,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4350,14 +4359,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4367,11 +4376,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>156</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4383,14 +4392,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4400,49 +4409,82 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>244</v>
+        <v>155</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>269</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>44</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>29</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>247</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>141</v>
       </c>
-      <c t="s" r="Q96" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5270.2449999999999</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>267</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>268</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>269</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c t="s" r="Q97" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>5235.7449999999999</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>270</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>271</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>272</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4901,10 +4943,15 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -227,12 +227,21 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>105.00</t>
   </si>
   <si>
@@ -624,6 +633,18 @@
   </si>
   <si>
     <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
   </si>
   <si>
     <t>VENTAMOR FACIAL WASH</t>
@@ -2056,7 +2077,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2066,14 +2087,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2082,14 +2103,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2099,14 +2120,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2115,14 +2136,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2132,7 +2153,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2155,7 +2176,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2165,14 +2186,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2181,14 +2202,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2198,14 +2219,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2214,14 +2235,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2231,14 +2252,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2247,14 +2268,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2287,7 +2308,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2297,14 +2318,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2320,7 +2341,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2330,7 +2351,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2353,7 +2374,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2370,7 +2391,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2400,10 +2421,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2412,7 +2433,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2429,11 +2450,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2452,7 +2473,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2469,7 +2490,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2485,7 +2506,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2524,7 +2545,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2535,7 +2556,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2551,21 +2572,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2577,14 +2598,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2601,7 +2622,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2617,7 +2638,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2634,7 +2655,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2650,7 +2671,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2716,7 +2737,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2733,7 +2754,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2749,7 +2770,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2782,7 +2803,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2792,14 +2813,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2815,7 +2836,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2825,14 +2846,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>145</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2848,21 +2869,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2874,28 +2895,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2907,14 +2928,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2924,14 +2945,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2947,7 +2968,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2957,14 +2978,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2973,14 +2994,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2990,11 +3011,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -3013,7 +3034,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3030,7 +3051,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3046,7 +3067,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3056,14 +3077,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3072,7 +3093,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3089,14 +3110,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3105,7 +3126,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3122,14 +3143,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3162,7 +3183,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3178,7 +3199,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3188,14 +3209,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3204,14 +3225,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3221,7 +3242,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3244,7 +3265,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3261,7 +3282,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3310,7 +3331,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3320,11 +3341,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3336,7 +3357,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3349,11 +3370,11 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3376,21 +3397,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3402,28 +3423,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3448,7 +3469,7 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3459,7 +3480,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3475,7 +3496,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3485,14 +3506,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3501,14 +3522,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3518,14 +3539,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3534,14 +3555,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3558,7 +3579,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3574,7 +3595,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3607,7 +3628,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3617,11 +3638,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3633,28 +3654,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3666,14 +3687,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3683,14 +3704,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3699,31 +3720,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3732,14 +3753,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3749,14 +3770,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3765,14 +3786,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3782,14 +3803,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3798,31 +3819,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3844,7 +3865,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3871,7 +3892,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>223</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3881,14 +3902,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3897,14 +3918,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3921,7 +3942,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3937,7 +3958,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3947,14 +3968,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>232</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3987,7 +4008,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>236</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3996,14 +4017,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4013,14 +4034,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4029,14 +4050,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4046,14 +4067,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>243</v>
-      </c>
-      <c t="s" r="Q85" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4069,7 +4090,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4079,11 +4100,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4095,14 +4116,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>119</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4112,11 +4133,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4128,14 +4149,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4145,11 +4166,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4161,14 +4182,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4178,14 +4199,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4201,7 +4222,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4211,14 +4232,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4227,14 +4248,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4244,14 +4265,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4260,14 +4281,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4277,14 +4298,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4293,14 +4314,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4310,11 +4331,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4326,14 +4347,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4343,14 +4364,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>110</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4359,14 +4380,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4376,11 +4397,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4392,14 +4413,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4409,14 +4430,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4425,14 +4446,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4442,49 +4463,115 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>5235.7449999999999</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>270</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>271</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
-        <v>272</v>
-      </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>274</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>275</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>29</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>158</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>276</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>44</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>29</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>254</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>5289.5150000000003</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>277</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>278</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>279</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4948,10 +5035,20 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -779,7 +779,7 @@
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
-    <t>27:0</t>
+    <t>26:0</t>
   </si>
   <si>
     <t>6.00</t>
@@ -2869,7 +2869,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -842,7 +842,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 8:27 PM</t>
+    <t>Thursday, 9 October, 2025 8:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -218,6 +218,15 @@
     <t>9.6000</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -362,9 +371,6 @@
     <t>144.00</t>
   </si>
   <si>
-    <t>72.0000</t>
-  </si>
-  <si>
     <t>FOSAMAX TAB</t>
   </si>
   <si>
@@ -530,6 +536,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
+  </si>
+  <si>
+    <t>368.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>OCTATRON 30 CAPS</t>
   </si>
   <si>
@@ -686,6 +701,18 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -716,7 +743,7 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>32.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -725,10 +752,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>25:0</t>
+    <t>26:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -779,9 +803,6 @@
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
-    <t>26:0</t>
-  </si>
-  <si>
     <t>6.00</t>
   </si>
   <si>
@@ -800,7 +821,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
+    <t>60.0000</t>
   </si>
   <si>
     <t>لونا انبوبه وسط</t>
@@ -815,9 +836,6 @@
     <t>-1:0</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -842,7 +860,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 8:41 PM</t>
+    <t>Thursday, 9 October, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2011,7 +2029,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2044,7 +2062,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2054,14 +2072,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2070,14 +2088,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2110,7 +2128,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2120,14 +2138,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2136,14 +2154,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2153,14 +2171,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2169,14 +2187,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2186,7 +2204,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2209,7 +2227,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2219,14 +2237,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2235,14 +2253,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2252,14 +2270,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2268,14 +2286,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2285,14 +2303,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2301,14 +2319,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2341,7 +2359,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2351,14 +2369,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2374,7 +2392,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2384,7 +2402,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2407,7 +2425,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2424,7 +2442,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2454,10 +2472,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2466,7 +2484,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2483,11 +2501,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2506,7 +2524,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2523,7 +2541,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2539,7 +2557,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2578,7 +2596,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2586,10 +2604,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2598,28 +2616,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2631,14 +2649,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2648,14 +2666,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2664,14 +2682,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2681,14 +2699,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2697,14 +2715,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2714,11 +2732,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2730,7 +2748,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2747,11 +2765,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2780,14 +2798,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2796,14 +2814,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2813,11 +2831,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2829,14 +2847,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2846,14 +2864,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2862,14 +2880,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2879,14 +2897,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2895,7 +2913,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2908,11 +2926,11 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2935,21 +2953,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2961,14 +2979,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2978,14 +2996,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3011,14 +3029,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3034,7 +3052,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3044,11 +3062,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3060,14 +3078,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3077,14 +3095,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3093,14 +3111,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3110,14 +3128,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3143,14 +3161,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3180,10 +3198,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3192,7 +3210,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3209,14 +3227,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3225,14 +3243,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3242,14 +3260,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3265,7 +3283,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3275,14 +3293,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>177</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3298,7 +3316,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3308,14 +3326,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3324,14 +3342,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3341,14 +3359,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3357,14 +3375,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3374,7 +3392,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3397,13 +3415,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3430,7 +3448,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3440,11 +3458,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3456,7 +3474,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3473,11 +3491,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3489,14 +3507,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3506,14 +3524,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3522,28 +3540,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3555,14 +3573,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3595,7 +3613,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3605,11 +3623,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3621,14 +3639,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3638,14 +3656,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3654,7 +3672,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3671,11 +3689,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3687,14 +3705,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3727,21 +3745,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3760,7 +3778,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3770,14 +3788,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3786,31 +3804,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3819,14 +3837,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3836,14 +3854,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3852,14 +3870,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3869,14 +3887,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3892,24 +3910,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3918,28 +3936,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3951,14 +3969,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3968,14 +3986,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3984,14 +4002,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4001,14 +4019,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4017,14 +4035,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4034,14 +4052,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>239</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4050,14 +4068,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4067,14 +4085,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>243</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4083,14 +4101,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4100,14 +4118,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4116,14 +4134,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4133,14 +4151,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4149,7 +4167,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4166,14 +4184,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4182,14 +4200,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4203,7 +4221,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4215,14 +4233,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4232,7 +4250,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4255,7 +4273,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4265,14 +4283,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>122</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4281,14 +4299,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4298,14 +4316,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4314,14 +4332,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4331,11 +4349,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>169</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4354,7 +4372,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4364,14 +4382,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4397,14 +4415,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4413,14 +4431,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4430,14 +4448,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>113</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4453,7 +4471,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4463,11 +4481,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4479,14 +4497,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4496,11 +4514,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>159</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4512,14 +4530,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4529,49 +4547,148 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>254</v>
+        <v>116</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>5289.5150000000003</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>279</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>224</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>29</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>276</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>277</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>278</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
-        <v>279</v>
-      </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c t="s" r="Q100" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>280</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>281</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>29</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>160</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>282</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>44</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>29</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>262</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5781.5150000000003</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>283</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>284</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>285</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5045,10 +5162,25 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -314,6 +314,18 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -860,7 +872,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 8:42 PM</t>
+    <t>Thursday, 9 October, 2025 8:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2402,14 +2414,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2418,14 +2430,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2435,11 +2447,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2451,14 +2463,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2468,14 +2480,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2484,7 +2496,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2501,14 +2513,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2517,7 +2529,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2534,11 +2546,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2550,14 +2562,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2567,14 +2579,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2600,11 +2612,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2616,7 +2628,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2629,18 +2641,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2649,20 +2661,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2689,7 +2701,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2699,14 +2711,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2715,14 +2727,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2732,14 +2744,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2748,14 +2760,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2765,11 +2777,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2781,7 +2793,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2798,11 +2810,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2814,14 +2826,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2831,14 +2843,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2847,14 +2859,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2864,11 +2876,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2880,14 +2892,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2897,14 +2909,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2913,14 +2925,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2930,14 +2942,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2946,7 +2958,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2959,15 +2971,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2979,28 +2991,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3012,14 +3024,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3029,14 +3041,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3045,14 +3057,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3062,14 +3074,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3078,14 +3090,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3095,11 +3107,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3111,14 +3123,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3128,14 +3140,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3144,14 +3156,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3161,14 +3173,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3177,7 +3189,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3194,14 +3206,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3210,7 +3222,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3227,14 +3239,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3243,7 +3255,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3260,14 +3272,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3276,14 +3288,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3293,14 +3305,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>177</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3309,14 +3321,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3326,14 +3338,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3342,14 +3354,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3359,11 +3371,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3375,14 +3387,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3392,14 +3404,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3408,7 +3420,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3425,11 +3437,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3441,14 +3453,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3458,11 +3470,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3474,7 +3486,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3487,15 +3499,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3507,28 +3519,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3540,28 +3552,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3573,7 +3585,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3586,18 +3598,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3606,14 +3618,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3623,14 +3635,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3639,14 +3651,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3656,14 +3668,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3679,7 +3691,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3689,14 +3701,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3705,14 +3717,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3722,11 +3734,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3738,14 +3750,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3755,11 +3767,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3771,14 +3783,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3788,11 +3800,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3811,21 +3823,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3837,31 +3849,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3870,14 +3882,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3887,14 +3899,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3903,14 +3915,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3920,14 +3932,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3936,14 +3948,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3953,14 +3965,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3976,24 +3988,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4002,14 +4014,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4026,7 +4038,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4059,7 +4071,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4092,7 +4104,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4108,7 +4120,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4118,14 +4130,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4134,7 +4146,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4151,14 +4163,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>247</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4167,7 +4179,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4184,11 +4196,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>251</v>
@@ -4207,7 +4219,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4217,14 +4229,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q89" s="12">
         <v>255</v>
-      </c>
-      <c t="s" r="Q89" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4250,11 +4262,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4266,14 +4278,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4283,11 +4295,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4299,14 +4311,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4316,11 +4328,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>146</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4332,14 +4344,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>247</v>
+        <v>128</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4349,11 +4361,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4365,14 +4377,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4382,14 +4394,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4398,14 +4410,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4415,14 +4427,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4431,14 +4443,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4448,14 +4460,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4464,14 +4476,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>128</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4481,11 +4493,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4497,14 +4509,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4514,11 +4526,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4530,14 +4542,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4547,14 +4559,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>116</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>71</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4563,14 +4575,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4580,14 +4592,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>120</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4596,14 +4608,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4613,11 +4625,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>161</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4629,14 +4641,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4646,49 +4658,82 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5781.5150000000003</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>283</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>284</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>285</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>286</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>44</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>29</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>266</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5802.3050000000003</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>287</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>288</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>289</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5177,10 +5222,15 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -377,6 +377,15 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
@@ -479,27 +488,30 @@
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>57.0000</t>
   </si>
   <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -566,9 +578,6 @@
     <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>180.00</t>
-  </si>
-  <si>
     <t>59.4000</t>
   </si>
   <si>
@@ -654,9 +663,6 @@
   </si>
   <si>
     <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
   </si>
   <si>
     <t>TUSSKAN SYRUP 100 ML</t>
@@ -2635,7 +2641,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2649,7 +2655,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2661,7 +2667,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2674,18 +2680,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2701,21 +2707,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2727,14 +2733,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2751,7 +2757,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2767,7 +2773,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2784,7 +2790,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2800,7 +2806,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2866,7 +2872,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2883,7 +2889,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2899,7 +2905,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2932,7 +2938,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2942,14 +2948,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2965,7 +2971,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2975,14 +2981,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>154</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3004,15 +3010,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3024,31 +3030,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3057,14 +3063,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3074,14 +3080,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3097,7 +3103,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3107,14 +3113,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3123,14 +3129,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3140,11 +3146,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3156,14 +3162,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3173,14 +3179,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3189,14 +3195,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3206,14 +3212,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3222,7 +3228,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3239,14 +3245,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3255,7 +3261,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3272,14 +3278,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3288,7 +3294,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3305,14 +3311,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3321,14 +3327,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3338,14 +3344,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>181</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3354,14 +3360,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3371,14 +3377,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3387,14 +3393,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3404,11 +3410,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3420,14 +3426,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3437,14 +3443,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3493,7 +3499,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3503,11 +3509,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3519,7 +3525,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3532,11 +3538,11 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3559,21 +3565,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3585,28 +3591,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3631,7 +3637,7 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3642,7 +3648,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3658,7 +3664,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3668,14 +3674,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3684,14 +3690,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3701,14 +3707,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3717,14 +3723,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3741,7 +3747,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3757,7 +3763,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3790,7 +3796,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3800,11 +3806,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3816,14 +3822,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3833,11 +3839,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3849,28 +3855,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>136</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3882,31 +3888,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3922,7 +3928,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3932,14 +3938,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3955,7 +3961,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3965,14 +3971,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3981,14 +3987,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3998,14 +4004,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4014,31 +4020,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4047,14 +4053,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4064,14 +4070,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4080,14 +4086,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4097,14 +4103,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4113,14 +4119,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4130,14 +4136,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4146,14 +4152,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4163,14 +4169,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>181</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4179,7 +4185,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4196,14 +4202,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>154</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>251</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4212,7 +4218,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4229,14 +4235,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4245,14 +4251,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4262,14 +4268,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4278,14 +4284,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4295,11 +4301,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4311,14 +4317,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4328,7 +4334,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4351,7 +4357,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4361,11 +4367,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>150</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4384,7 +4390,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>251</v>
+        <v>131</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4398,7 +4404,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4410,14 +4416,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4427,14 +4433,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>128</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4443,14 +4449,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4460,14 +4466,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4483,7 +4489,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4493,14 +4499,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4516,7 +4522,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>131</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4526,11 +4532,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4549,7 +4555,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4559,11 +4565,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4575,14 +4581,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4592,14 +4598,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>120</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4608,14 +4614,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4625,14 +4631,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4641,14 +4647,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4658,11 +4664,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>165</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4681,7 +4687,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4691,49 +4697,82 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5802.3050000000003</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>287</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>288</v>
       </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>44</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>29</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>268</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5949.3050000000003</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
         <v>289</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>290</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>291</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5227,10 +5266,15 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -377,6 +377,15 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -581,15 +590,15 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
   </si>
   <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -878,7 +887,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 8:43 PM</t>
+    <t>Thursday, 9 October, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2641,7 +2650,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2658,7 +2667,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2674,7 +2683,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2688,7 +2697,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2700,7 +2709,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2713,18 +2722,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2740,21 +2749,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2766,14 +2775,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2790,7 +2799,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2806,7 +2815,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2823,7 +2832,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2839,7 +2848,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2905,7 +2914,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2922,7 +2931,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2938,7 +2947,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2971,7 +2980,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2981,14 +2990,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3004,7 +3013,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3014,14 +3023,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>157</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3037,24 +3046,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3063,31 +3072,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3096,14 +3105,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3113,14 +3122,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3136,7 +3145,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3146,14 +3155,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3169,7 +3178,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3179,7 +3188,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3202,7 +3211,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3219,7 +3228,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3235,7 +3244,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3245,14 +3254,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3261,7 +3270,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3278,14 +3287,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3294,7 +3303,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3311,14 +3320,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3351,7 +3360,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3367,7 +3376,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3377,14 +3386,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>185</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3400,7 +3409,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3410,14 +3419,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3426,14 +3435,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3443,11 +3452,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3476,14 +3485,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3499,7 +3508,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3513,10 +3522,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3525,14 +3534,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3542,11 +3551,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3558,28 +3567,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3608,11 +3617,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3624,7 +3633,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3641,11 +3650,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3657,14 +3666,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3674,14 +3683,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3690,28 +3699,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3723,14 +3732,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3740,11 +3749,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3756,14 +3765,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3773,11 +3782,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3789,14 +3798,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3806,14 +3815,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3822,7 +3831,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3839,11 +3848,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3862,7 +3871,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3872,11 +3881,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3888,28 +3897,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3921,14 +3930,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3938,14 +3947,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>67</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3961,24 +3970,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3987,14 +3996,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4004,14 +4013,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4027,7 +4036,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>230</v>
+        <v>106</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4037,14 +4046,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>117</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4053,31 +4062,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4086,31 +4095,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4119,14 +4128,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4136,14 +4145,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4152,14 +4161,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4169,14 +4178,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>154</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4185,14 +4194,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4202,14 +4211,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>185</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4218,14 +4227,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4235,14 +4244,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q89" s="12">
         <v>157</v>
-      </c>
-      <c t="s" r="Q89" s="12">
-        <v>253</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4251,7 +4260,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4268,14 +4277,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>257</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4284,14 +4293,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4301,14 +4310,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4317,14 +4326,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4334,14 +4343,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4350,14 +4359,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4367,11 +4376,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4383,14 +4392,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4400,11 +4409,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4416,14 +4425,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4433,11 +4442,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4449,14 +4458,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4466,14 +4475,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4482,14 +4491,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>33</v>
+        <v>256</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4499,14 +4508,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4515,14 +4524,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4532,14 +4541,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4548,14 +4557,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4565,14 +4574,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4581,14 +4590,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4598,11 +4607,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4614,14 +4623,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4631,14 +4640,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>71</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4647,14 +4656,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>230</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4664,11 +4673,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4680,14 +4689,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>83</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4697,14 +4706,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4720,7 +4729,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4730,49 +4739,115 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>153</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5949.3050000000003</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>289</v>
       </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
         <v>290</v>
       </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>29</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>171</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>291</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>44</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>29</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>271</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>6071.3050000000003</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>292</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>293</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>294</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5271,10 +5346,20 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -728,141 +728,141 @@
     <t>42.9000</t>
   </si>
   <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>15:0</t>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن جير ميني 36ق</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>22.5000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>199:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سويت افوفا</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>غيار عيون</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>لونا انبوبه وسط</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن جير ميني 36ق</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>450.00</t>
-  </si>
-  <si>
-    <t>22.5000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>199:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>45:0</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>سويت افوفا</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>غيار عيون</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>لونا انبوبه وسط</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>مبرد قدم</t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -887,7 +887,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 8:58 PM</t>
+    <t>Thursday, 9 October, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4185,7 +4185,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4218,7 +4218,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4234,7 +4234,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4244,14 +4244,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>157</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4277,14 +4277,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q90" s="12">
         <v>253</v>
-      </c>
-      <c t="s" r="Q90" s="12">
-        <v>188</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4314,10 +4314,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4326,14 +4326,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4343,14 +4343,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>260</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4359,14 +4359,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4399,7 +4399,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>33</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4409,11 +4409,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4425,14 +4425,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4442,11 +4442,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4458,14 +4458,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>134</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4491,14 +4491,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4508,14 +4508,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4524,14 +4524,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4541,11 +4541,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>134</v>
@@ -4557,14 +4557,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4574,14 +4574,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>134</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4590,14 +4590,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4607,11 +4607,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>182</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4623,14 +4623,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>283</v>
+        <v>33</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4640,11 +4640,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4656,14 +4656,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4673,14 +4673,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4689,14 +4689,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4706,14 +4706,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>71</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4722,14 +4722,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4739,11 +4739,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4755,14 +4755,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4772,82 +4772,49 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>171</v>
+        <v>268</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="A106" s="7">
-        <v>100</v>
-      </c>
-      <c r="B106" s="7"/>
-      <c t="s" r="C106" s="8">
-        <v>291</v>
-      </c>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c t="s" r="H106" s="9">
-        <v>44</v>
-      </c>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
-      <c t="s" r="L106" s="10">
-        <v>29</v>
-      </c>
-      <c r="M106" s="10"/>
-      <c t="s" r="N106" s="8">
-        <v>271</v>
-      </c>
-      <c r="O106" s="8"/>
-      <c t="s" r="P106" s="11">
-        <v>156</v>
-      </c>
-      <c t="s" r="Q106" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>6071.3050000000003</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
+      <c r="P106" s="13">
+        <v>6054.3050000000003</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
         <v>292</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
         <v>293</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
         <v>294</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5351,15 +5318,10 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="H106:K106"/>
-    <mergeCell ref="L106:M106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -728,6 +728,15 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -849,9 +858,6 @@
   </si>
   <si>
     <t>لونا انبوبه وسط</t>
-  </si>
-  <si>
-    <t>25.00</t>
   </si>
   <si>
     <t>مبرد قدم</t>
@@ -4182,10 +4188,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4194,14 +4200,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4211,14 +4217,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>157</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4227,14 +4233,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4251,7 +4257,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4284,7 +4290,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>253</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4293,7 +4299,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4310,14 +4316,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q91" s="12">
         <v>256</v>
-      </c>
-      <c t="s" r="Q91" s="12">
-        <v>257</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4326,14 +4332,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4343,14 +4349,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4359,14 +4365,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4376,7 +4382,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4399,7 +4405,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>33</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4409,11 +4415,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4425,14 +4431,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4442,11 +4448,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4458,14 +4464,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>134</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4479,7 +4485,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4491,14 +4497,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4515,7 +4521,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>134</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4531,7 +4537,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4564,7 +4570,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4578,10 +4584,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4590,14 +4596,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>134</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4607,11 +4613,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4623,14 +4629,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>33</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4640,11 +4646,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4656,14 +4662,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4673,14 +4679,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>120</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>71</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4689,14 +4695,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4706,14 +4712,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4722,14 +4728,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4739,11 +4745,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>171</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>172</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4762,7 +4768,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4772,49 +4778,82 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>293</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>44</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>29</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>271</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>156</v>
       </c>
-      <c t="s" r="Q105" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>6054.3050000000003</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>292</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>293</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c t="s" r="Q106" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>6079.3050000000003</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
         <v>294</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>295</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>296</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5318,10 +5357,15 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -653,12 +662,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
     <t>SANSOVIT PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -893,7 +896,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 9:04 PM</t>
+    <t>Thursday, 9 October, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1798,7 +1801,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1808,14 +1811,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1824,14 +1827,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1841,11 +1844,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1857,14 +1860,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1874,7 +1877,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1930,7 +1933,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1947,7 +1950,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1963,7 +1966,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1980,7 +1983,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1996,7 +1999,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2006,14 +2009,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2022,14 +2025,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2039,11 +2042,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2055,14 +2058,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2079,7 +2082,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2095,7 +2098,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2128,7 +2131,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2138,14 +2141,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2154,14 +2157,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2194,7 +2197,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2204,14 +2207,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2220,14 +2223,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2237,14 +2240,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2253,14 +2256,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2270,7 +2273,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2293,7 +2296,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2303,14 +2306,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2319,14 +2322,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2336,14 +2339,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2352,14 +2355,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2369,14 +2372,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2385,14 +2388,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2425,7 +2428,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2435,11 +2438,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2451,14 +2454,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2468,14 +2471,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2491,7 +2494,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2501,7 +2504,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2524,7 +2527,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2541,7 +2544,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2571,10 +2574,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2583,7 +2586,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2600,11 +2603,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2623,7 +2626,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2640,7 +2643,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2656,7 +2659,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2673,7 +2676,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2689,7 +2692,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2706,7 +2709,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2722,7 +2725,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2736,7 +2739,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2748,7 +2751,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2761,18 +2764,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2788,21 +2791,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2814,14 +2817,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2838,7 +2841,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2854,7 +2857,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2871,7 +2874,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2887,7 +2890,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2953,7 +2956,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2970,7 +2973,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2986,7 +2989,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3019,7 +3022,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3029,14 +3032,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3052,7 +3055,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3062,14 +3065,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>160</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3085,24 +3088,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3111,31 +3114,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3144,14 +3147,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3161,14 +3164,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3184,7 +3187,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3194,14 +3197,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3217,7 +3220,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3227,7 +3230,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3250,7 +3253,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3267,7 +3270,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3283,7 +3286,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3293,14 +3296,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3309,7 +3312,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3326,14 +3329,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3342,7 +3345,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3359,14 +3362,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3399,7 +3402,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3415,7 +3418,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3425,14 +3428,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>188</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3448,7 +3451,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3458,14 +3461,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3474,14 +3477,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3491,11 +3494,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3507,14 +3510,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3524,14 +3527,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3540,14 +3543,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3557,14 +3560,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3573,7 +3576,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3590,11 +3593,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>126</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3613,7 +3616,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3623,11 +3626,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3639,7 +3642,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3652,11 +3655,11 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3679,21 +3682,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3705,28 +3708,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3751,7 +3754,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3762,7 +3765,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3778,7 +3781,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3788,14 +3791,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3804,14 +3807,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3821,14 +3824,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>99</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3837,14 +3840,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3854,14 +3857,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3870,14 +3873,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3887,11 +3890,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>127</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3903,14 +3906,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3920,11 +3923,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3943,7 +3946,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3953,11 +3956,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>123</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3969,28 +3972,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4009,24 +4012,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4035,14 +4038,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4052,14 +4055,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4068,14 +4071,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4085,14 +4088,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4108,7 +4111,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4118,14 +4121,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4134,31 +4137,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4167,14 +4170,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4184,14 +4187,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4200,14 +4203,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4217,14 +4220,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4233,14 +4236,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4250,14 +4253,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>157</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4266,14 +4269,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4283,14 +4286,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4299,7 +4302,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4316,14 +4319,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>256</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4332,7 +4335,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4349,14 +4352,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4365,14 +4368,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4382,14 +4385,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4398,14 +4401,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4415,11 +4418,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4431,14 +4434,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4448,11 +4451,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4464,14 +4467,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4481,11 +4484,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>156</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4497,14 +4500,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4514,11 +4517,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4530,14 +4533,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4547,14 +4550,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>134</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4563,14 +4566,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4580,14 +4583,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4596,14 +4599,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4613,14 +4616,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>182</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4636,7 +4639,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>137</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4646,11 +4649,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4662,14 +4665,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4679,11 +4682,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4695,14 +4698,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4712,14 +4715,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>71</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4735,7 +4738,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4745,14 +4748,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>123</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4768,7 +4771,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4778,11 +4781,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>171</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>172</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4794,14 +4797,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4811,49 +4814,82 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>6079.3050000000003</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>294</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>47</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>29</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>272</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>6109.9949999999999</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
         <v>295</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
         <v>296</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>297</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5362,10 +5398,15 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -791,10 +791,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -896,7 +893,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 9:05 PM</t>
+    <t>Thursday, 9 October, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4389,10 +4386,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q93" s="12">
         <v>260</v>
-      </c>
-      <c t="s" r="Q93" s="12">
-        <v>261</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4401,14 +4398,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4418,11 +4415,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4434,14 +4431,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4455,7 +4452,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4467,7 +4464,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4488,7 +4485,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4500,7 +4497,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4517,7 +4514,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4533,14 +4530,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4550,11 +4547,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4566,7 +4563,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4583,11 +4580,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>137</v>
@@ -4599,7 +4596,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4616,11 +4613,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>137</v>
@@ -4632,7 +4629,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4665,14 +4662,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4682,11 +4679,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4698,7 +4695,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4715,11 +4712,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4731,7 +4728,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4764,7 +4761,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4781,11 +4778,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4797,14 +4794,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4830,7 +4827,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4847,7 +4844,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -4859,13 +4856,13 @@
     </row>
     <row r="108" ht="24.75" customHeight="1">
       <c r="P108" s="13">
-        <v>6109.9949999999999</v>
+        <v>6139.9949999999999</v>
       </c>
       <c r="Q108" s="13"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
       <c t="s" r="A109" s="14">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4873,13 +4870,13 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
       <c t="s" r="G109" s="15">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="16"/>
       <c t="s" r="K109" s="17">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -521,6 +530,15 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -569,6 +587,21 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
@@ -578,6 +611,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
   </si>
   <si>
@@ -671,6 +713,21 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>103.7400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOPADOL WOMAN </t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -779,10 +836,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>25:0</t>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>31:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -791,7 +848,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>24:0</t>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>23:0</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -893,7 +953,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 9:09 PM</t>
+    <t>Thursday, 9 October, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1798,7 +1858,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1831,7 +1891,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1841,14 +1901,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1857,14 +1917,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1874,11 +1934,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1890,14 +1950,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1907,7 +1967,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1963,7 +2023,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1980,7 +2040,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1996,7 +2056,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2013,7 +2073,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2029,7 +2089,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2039,14 +2099,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2055,14 +2115,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2072,11 +2132,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2088,14 +2148,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2112,7 +2172,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2128,7 +2188,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2161,7 +2221,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2171,14 +2231,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2187,14 +2247,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2227,7 +2287,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2237,14 +2297,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2253,14 +2313,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2270,14 +2330,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2286,14 +2346,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2303,7 +2363,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2326,7 +2386,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2336,14 +2396,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2352,14 +2412,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2369,14 +2429,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2385,14 +2445,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2402,14 +2462,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2418,14 +2478,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2458,7 +2518,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2468,11 +2528,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2484,14 +2544,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2501,14 +2561,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2524,7 +2584,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2534,7 +2594,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2557,7 +2617,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2574,7 +2634,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2604,10 +2664,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2616,7 +2676,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2633,11 +2693,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2656,7 +2716,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2673,7 +2733,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2689,7 +2749,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2706,7 +2766,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2722,7 +2782,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2739,7 +2799,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2755,7 +2815,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2769,7 +2829,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2781,7 +2841,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2794,18 +2854,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2821,21 +2881,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2847,14 +2907,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2871,7 +2931,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2887,7 +2947,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2904,7 +2964,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2920,7 +2980,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2986,7 +3046,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3003,7 +3063,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3019,7 +3079,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3052,7 +3112,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3062,14 +3122,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3085,7 +3145,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3095,14 +3155,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>163</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3118,24 +3178,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3144,31 +3204,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3177,14 +3237,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3194,14 +3254,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3217,7 +3277,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3227,14 +3287,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3250,7 +3310,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3260,14 +3320,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3283,7 +3343,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3293,14 +3353,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3326,11 +3386,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3342,14 +3402,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3359,14 +3419,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3375,7 +3435,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3392,14 +3452,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3408,7 +3468,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3425,14 +3485,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3448,7 +3508,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3458,14 +3518,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3481,7 +3541,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3491,14 +3551,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3507,14 +3567,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3524,14 +3584,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3540,14 +3600,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3557,14 +3617,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>160</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3573,14 +3633,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3590,14 +3650,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3606,14 +3666,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3623,14 +3683,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3639,14 +3699,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3656,14 +3716,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3672,31 +3732,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3705,14 +3765,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3722,11 +3782,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3738,28 +3798,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3771,7 +3831,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3788,14 +3848,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>102</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3804,28 +3864,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3837,14 +3897,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3854,14 +3914,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3870,28 +3930,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3903,7 +3963,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3920,14 +3980,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3936,14 +3996,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3953,11 +4013,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3969,14 +4029,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3986,14 +4046,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>47</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4002,28 +4062,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>144</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>145</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4035,14 +4095,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4052,11 +4112,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>35</v>
@@ -4068,31 +4128,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>120</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4101,14 +4161,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4118,11 +4178,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4134,14 +4194,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4151,14 +4211,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>235</v>
+        <v>126</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4167,31 +4227,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4200,14 +4260,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>241</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4217,11 +4277,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4233,31 +4293,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4266,31 +4326,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>123</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4306,24 +4366,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>191</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4332,31 +4392,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>257</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4365,14 +4425,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4382,14 +4442,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>260</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4398,14 +4458,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4415,11 +4475,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4431,14 +4491,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4448,14 +4508,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4464,14 +4524,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4481,14 +4541,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4504,7 +4564,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4518,10 +4578,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4530,14 +4590,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4554,7 +4614,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4563,14 +4623,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4580,14 +4640,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>137</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4596,14 +4656,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4613,14 +4673,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4629,14 +4689,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4646,11 +4706,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>185</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4662,14 +4722,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4679,11 +4739,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4695,14 +4755,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4712,11 +4772,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4728,14 +4788,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>86</v>
+        <v>293</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4745,14 +4805,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>123</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>74</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4761,14 +4821,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4778,14 +4838,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4794,14 +4854,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>33</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4811,14 +4871,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4827,14 +4887,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4844,49 +4904,247 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>6139.9949999999999</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>294</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>295</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>296</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>303</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>304</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>29</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>300</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>306</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>33</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>29</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>307</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>309</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>89</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>29</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>126</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>310</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>253</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>29</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>307</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>311</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>312</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>29</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>180</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>313</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>50</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>29</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>291</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>6430.375</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>314</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>315</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>316</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5400,10 +5658,40 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -953,7 +953,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 9:30 PM</t>
+    <t>Thursday, 9 October, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -908,6 +908,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -917,6 +926,12 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>لونا انبوبه وسط</t>
   </si>
   <si>
@@ -944,16 +959,16 @@
     <t>مرهم اكتيول اسود</t>
   </si>
   <si>
+    <t>معجون سنسوداين صغير</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 9:31 PM</t>
+    <t>Thursday, 9 October, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4861,7 +4876,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4871,14 +4886,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>140</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4894,7 +4909,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4904,14 +4919,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4920,14 +4935,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4937,11 +4952,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4953,14 +4968,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4970,11 +4985,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>308</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -4986,14 +5001,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>89</v>
+        <v>309</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5003,14 +5018,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5019,14 +5034,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5036,11 +5051,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5052,14 +5067,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>89</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5069,14 +5084,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5085,14 +5100,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5102,49 +5117,148 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>316</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>140</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>29</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>301</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>317</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>306</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>29</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>180</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>318</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>50</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>29</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>291</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>162</v>
       </c>
-      <c t="s" r="Q113" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>6430.375</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>314</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>315</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
-        <v>316</v>
-      </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c t="s" r="Q116" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>6545.375</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>319</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>320</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>321</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5688,10 +5802,25 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -968,7 +968,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 9:38 PM</t>
+    <t>Thursday, 9 October, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -968,7 +968,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 9:39 PM</t>
+    <t>Thursday, 9 October, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -308,6 +317,18 @@
     <t>5:1</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DEVAROL-S 200000 I.U AMPOULE</t>
   </si>
   <si>
@@ -395,6 +416,15 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>46.0350</t>
+  </si>
+  <si>
     <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
   </si>
   <si>
@@ -410,330 +440,330 @@
     <t>180.00</t>
   </si>
   <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>FOSAMAX TAB</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>HI-POTENCY FORMULA 30 TABS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
+  </si>
+  <si>
+    <t>368.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>OCTATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PEDICAL PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>PENDULINE كريم ب زبدة الشيا</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>PIOSETA HAIR OIL</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>REPAION-N GEL 50 GM</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>103.7400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOPADOL WOMAN </t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
     <t>90.0000</t>
   </si>
   <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>FOSAMAX TAB</t>
-  </si>
-  <si>
-    <t>62.75</t>
-  </si>
-  <si>
-    <t>62.7500</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>HI-POTENCY FORMULA 30 TABS.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>10.5000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>178.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
-  </si>
-  <si>
-    <t>368.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>OCTATRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PEDICAL PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>PENDULINE كريم ب زبدة الشيا</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>PIOSETA HAIR OIL</t>
-  </si>
-  <si>
-    <t>185.00</t>
-  </si>
-  <si>
-    <t>185.0000</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>REPAION-N GEL 50 GM</t>
-  </si>
-  <si>
-    <t>ROWACHOL 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>SANSOVIT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>103.7400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOPADOL WOMAN </t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -836,10 +866,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>31:0</t>
+    <t>36:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -968,7 +995,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 9:42 PM</t>
+    <t>Thursday, 9 October, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1840,7 +1867,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1850,11 +1877,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1866,14 +1893,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1906,7 +1933,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1939,7 +1966,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1949,14 +1976,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1965,14 +1992,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1982,11 +2009,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1998,14 +2025,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2015,7 +2042,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -2071,7 +2098,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2088,7 +2115,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2104,7 +2131,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2121,7 +2148,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2137,7 +2164,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2147,14 +2174,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2163,14 +2190,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2180,11 +2207,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2196,14 +2223,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2220,7 +2247,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2236,7 +2263,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2269,7 +2296,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2279,14 +2306,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2295,14 +2322,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2335,7 +2362,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2345,14 +2372,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2361,14 +2388,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2378,14 +2405,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2394,14 +2421,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2411,7 +2438,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2434,7 +2461,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2444,14 +2471,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2460,14 +2487,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2477,14 +2504,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2493,14 +2520,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2510,14 +2537,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2526,14 +2553,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2543,14 +2570,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2599,7 +2626,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2609,14 +2636,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2632,7 +2659,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2642,14 +2669,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2658,14 +2685,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2675,14 +2702,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2691,14 +2718,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2708,11 +2735,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2724,7 +2751,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2741,14 +2768,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2757,14 +2784,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2774,14 +2801,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2790,14 +2817,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2807,11 +2834,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2823,14 +2850,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2840,11 +2867,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2856,14 +2883,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2873,11 +2900,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2889,28 +2916,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2922,14 +2949,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2939,11 +2966,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2955,14 +2982,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2972,11 +2999,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3001,7 +3028,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3028,7 +3055,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3038,11 +3065,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -3054,14 +3081,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3071,14 +3098,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3087,14 +3114,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3104,14 +3131,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3120,14 +3147,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3137,14 +3164,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3153,14 +3180,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3170,14 +3197,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>163</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3186,14 +3213,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3203,14 +3230,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3219,31 +3246,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3252,7 +3279,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3269,14 +3296,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3285,14 +3312,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3302,14 +3329,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3318,31 +3345,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3351,14 +3378,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3368,11 +3395,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3384,14 +3411,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3401,14 +3428,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3417,14 +3444,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3434,11 +3461,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3450,14 +3477,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3467,11 +3494,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3483,7 +3510,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3500,14 +3527,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3516,14 +3543,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3533,11 +3560,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3549,14 +3576,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3566,14 +3593,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>196</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3603,10 +3630,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3615,7 +3642,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3632,14 +3659,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3648,14 +3675,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3665,14 +3692,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3681,14 +3708,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3698,14 +3725,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3714,14 +3741,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3731,14 +3758,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3747,7 +3774,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3764,14 +3791,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>163</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3780,14 +3807,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3797,14 +3824,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3813,14 +3840,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3830,14 +3857,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3846,14 +3873,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3863,14 +3890,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3879,28 +3906,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3912,14 +3939,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3929,11 +3956,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3945,7 +3972,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3958,15 +3985,15 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3978,7 +4005,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3991,18 +4018,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4011,14 +4038,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4028,11 +4055,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4044,31 +4071,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>33</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4077,14 +4104,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4094,14 +4121,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4110,14 +4137,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4127,14 +4154,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4143,31 +4170,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>50</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4176,14 +4203,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4193,11 +4220,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4209,14 +4236,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4226,14 +4253,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4242,28 +4269,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4275,7 +4302,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4288,15 +4315,15 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>147</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4308,14 +4335,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4325,14 +4352,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4341,14 +4368,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4358,14 +4385,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4374,28 +4401,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4407,14 +4434,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4424,14 +4451,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4440,28 +4467,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>130</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4473,28 +4500,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4519,7 +4546,7 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4546,7 +4573,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4556,14 +4583,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4572,14 +4599,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4593,10 +4620,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>205</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4605,14 +4632,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4629,7 +4656,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>276</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4638,14 +4665,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4662,7 +4689,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>280</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4671,14 +4698,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4688,14 +4715,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4704,14 +4731,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>286</v>
+        <v>33</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4721,14 +4748,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4737,7 +4764,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4754,14 +4781,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q102" s="12">
         <v>289</v>
-      </c>
-      <c t="s" r="Q102" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4777,7 +4804,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>140</v>
+        <v>291</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4787,11 +4814,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>162</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4803,14 +4830,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4820,11 +4847,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4836,14 +4863,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4853,14 +4880,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>140</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4876,7 +4903,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4886,11 +4913,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4902,14 +4929,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>33</v>
+        <v>302</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4926,7 +4953,7 @@
         <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>140</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4942,7 +4969,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>306</v>
+        <v>53</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4952,14 +4979,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>180</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>181</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4968,14 +4995,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>140</v>
+        <v>309</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4985,11 +5012,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -5001,14 +5028,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>309</v>
+        <v>33</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5018,14 +5045,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5034,14 +5061,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>33</v>
+        <v>315</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5051,11 +5078,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>312</v>
+        <v>190</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>313</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5067,14 +5094,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5084,14 +5111,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>126</v>
+        <v>271</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5100,14 +5127,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>253</v>
+        <v>318</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5121,7 +5148,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5133,14 +5160,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5150,11 +5177,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>265</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5166,14 +5193,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>306</v>
+        <v>92</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5183,14 +5210,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5199,14 +5226,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>50</v>
+        <v>263</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5216,49 +5243,148 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>6545.375</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>319</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>320</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>321</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>325</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>150</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>29</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>310</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>326</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>315</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>29</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>190</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>327</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>53</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>29</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>300</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>6813.04</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>328</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>329</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>330</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5817,10 +5943,25 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -995,7 +995,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 9:44 PM</t>
+    <t>Thursday, 9 October, 2025 9:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -179,6 +188,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -500,9 +518,6 @@
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>75.0000</t>
   </si>
   <si>
@@ -755,6 +770,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -995,7 +1019,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 9:45 PM</t>
+    <t>Thursday, 9 October, 2025 9:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1999,7 +2023,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2009,14 +2033,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2025,14 +2049,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2042,11 +2066,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -2058,14 +2082,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2075,14 +2099,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2091,14 +2115,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2108,7 +2132,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -2131,7 +2155,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2148,7 +2172,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2164,7 +2188,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2197,7 +2221,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2207,11 +2231,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2223,14 +2247,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2240,14 +2264,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2256,14 +2280,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2273,14 +2297,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2289,14 +2313,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2313,7 +2337,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2329,7 +2353,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2339,14 +2363,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2355,14 +2379,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2372,14 +2396,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2388,14 +2412,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2405,14 +2429,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2421,14 +2445,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2438,7 +2462,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2461,7 +2485,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2471,14 +2495,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2487,14 +2511,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2504,14 +2528,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2520,14 +2544,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2544,7 +2568,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2560,7 +2584,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2570,14 +2594,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2586,14 +2610,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2603,14 +2627,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2619,14 +2643,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2636,14 +2660,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2652,14 +2676,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2669,11 +2693,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2685,14 +2709,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2702,14 +2726,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2718,14 +2742,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2742,7 +2766,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2758,7 +2782,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2768,14 +2792,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2791,7 +2815,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2805,7 +2829,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2817,7 +2841,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2834,14 +2858,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2850,14 +2874,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2867,14 +2891,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2907,7 +2931,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2923,7 +2947,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2940,7 +2964,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2956,7 +2980,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2973,7 +2997,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2989,7 +3013,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3003,10 +3027,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3015,28 +3039,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -3048,14 +3072,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3069,10 +3093,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3081,31 +3105,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3114,14 +3138,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3154,7 +3178,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3171,7 +3195,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3187,7 +3211,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3220,7 +3244,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3237,7 +3261,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3253,7 +3277,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3263,14 +3287,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3279,7 +3303,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3296,14 +3320,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3312,14 +3336,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3329,14 +3353,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3345,31 +3369,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>178</v>
-      </c>
-      <c t="s" r="Q59" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3385,7 +3409,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3395,11 +3419,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3411,31 +3435,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3444,14 +3468,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3461,14 +3485,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3477,14 +3501,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3494,14 +3518,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3510,14 +3534,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3527,14 +3551,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3543,14 +3567,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3560,14 +3584,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3576,7 +3600,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3593,7 +3617,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3616,7 +3640,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3630,10 +3654,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3642,7 +3666,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3659,14 +3683,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3682,7 +3706,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3692,14 +3716,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>206</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3708,7 +3732,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3725,14 +3749,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3741,14 +3765,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3758,14 +3782,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3774,14 +3798,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3791,14 +3815,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>215</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3807,14 +3831,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3824,14 +3848,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3847,7 +3871,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3857,14 +3881,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3873,14 +3897,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3890,14 +3914,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>37</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3906,14 +3930,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3923,14 +3947,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3939,14 +3963,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3956,14 +3980,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3972,14 +3996,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3989,11 +4013,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -4012,13 +4036,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -4045,7 +4069,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4055,11 +4079,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4071,7 +4095,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4088,11 +4112,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4104,14 +4128,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4121,14 +4145,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>128</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4137,28 +4161,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4170,14 +4194,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4187,11 +4211,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>50</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>51</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4203,14 +4227,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4220,11 +4244,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4236,14 +4260,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4253,14 +4277,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4276,13 +4300,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4309,7 +4333,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4319,14 +4343,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4335,28 +4359,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4368,14 +4392,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4392,7 +4416,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4414,15 +4438,15 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4434,14 +4458,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4451,14 +4475,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4467,14 +4491,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>119</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4484,14 +4508,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4500,28 +4524,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4533,14 +4557,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>263</v>
+        <v>178</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4550,14 +4574,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4566,24 +4590,24 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>136</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4606,21 +4630,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>22</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4632,28 +4656,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4665,14 +4689,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4682,14 +4706,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4698,14 +4722,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>33</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4715,14 +4739,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>215</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4731,14 +4755,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4748,14 +4772,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>285</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4764,14 +4788,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4781,14 +4805,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>289</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4797,14 +4821,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4814,14 +4838,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4830,14 +4854,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>295</v>
+        <v>33</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4847,14 +4871,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4863,7 +4887,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4880,14 +4904,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4896,14 +4920,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>150</v>
+        <v>299</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4917,7 +4941,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>172</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4929,14 +4953,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4946,7 +4970,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -4969,7 +4993,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4979,14 +5003,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4995,14 +5019,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>309</v>
+        <v>156</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5012,11 +5036,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>275</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -5028,14 +5052,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>33</v>
+        <v>310</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5045,14 +5069,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5061,14 +5085,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>315</v>
+        <v>56</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5078,14 +5102,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>190</v>
+        <v>314</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>191</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5101,7 +5125,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>150</v>
+        <v>317</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5111,11 +5135,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5127,14 +5151,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>318</v>
+        <v>33</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5144,14 +5168,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5160,14 +5184,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>33</v>
+        <v>323</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5177,11 +5201,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>321</v>
+        <v>195</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>322</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5193,14 +5217,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5210,14 +5234,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>133</v>
+        <v>279</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5226,14 +5250,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>263</v>
+        <v>326</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5243,11 +5267,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5259,14 +5283,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5276,11 +5300,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5292,14 +5316,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>315</v>
+        <v>98</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5309,14 +5333,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5325,14 +5349,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>53</v>
+        <v>271</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5342,49 +5366,148 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>172</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6813.04</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>328</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>329</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
-        <v>330</v>
-      </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>333</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>156</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>29</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>318</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>334</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>323</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>29</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>195</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>335</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>56</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>29</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>308</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6969.54</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>336</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>337</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>338</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5958,10 +6081,25 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -281,6 +281,15 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CIPROFLOXACIN-ORGANO 500 MG 10 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
@@ -377,57 +386,57 @@
     <t>2:3</t>
   </si>
   <si>
-    <t>63.00</t>
-  </si>
-  <si>
     <t>20.7900</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>DOLO-D ORAL SUSP. 115 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
     <t>7:1</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DOLO-D ORAL SUSP. 115 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -1019,7 +1028,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 9:53 PM</t>
+    <t>Thursday, 9 October, 2025 9:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2419,7 +2428,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2429,14 +2438,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2445,14 +2454,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2485,7 +2494,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2495,14 +2504,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2511,14 +2520,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2528,14 +2537,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2544,14 +2553,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2561,7 +2570,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2584,7 +2593,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2594,14 +2603,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2610,14 +2619,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2627,14 +2636,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2643,14 +2652,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2660,11 +2669,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2676,14 +2685,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2693,14 +2702,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2709,14 +2718,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2749,7 +2758,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2759,11 +2768,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2775,14 +2784,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2792,14 +2801,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2808,14 +2817,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2825,14 +2834,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2841,14 +2850,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2858,14 +2867,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2874,7 +2883,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2891,14 +2900,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2928,7 +2937,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2940,14 +2949,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2957,14 +2966,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2973,14 +2982,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3013,7 +3022,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3030,7 +3039,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3046,7 +3055,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3079,7 +3088,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3093,10 +3102,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3105,7 +3114,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3118,18 +3127,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3145,21 +3154,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3171,14 +3180,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3195,7 +3204,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3211,7 +3220,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3228,7 +3237,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3244,7 +3253,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3287,11 +3296,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3303,14 +3312,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3320,14 +3329,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3343,7 +3352,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3376,7 +3385,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3386,14 +3395,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3409,7 +3418,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3419,14 +3428,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>181</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3442,24 +3451,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3468,31 +3477,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3501,14 +3510,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3518,14 +3527,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3541,7 +3550,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3551,7 +3560,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3584,14 +3593,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3607,7 +3616,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3617,7 +3626,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3640,7 +3649,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3657,7 +3666,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3673,7 +3682,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3683,14 +3692,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3699,7 +3708,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3716,14 +3725,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3732,7 +3741,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3749,14 +3758,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3772,7 +3781,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3782,14 +3791,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>211</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3798,14 +3807,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3815,14 +3824,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>214</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3871,7 +3880,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3881,14 +3890,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>220</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3904,7 +3913,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3914,14 +3923,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3930,14 +3939,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3947,11 +3956,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3963,14 +3972,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3980,14 +3989,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>151</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3996,14 +4005,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4013,14 +4022,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4029,7 +4038,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4046,11 +4055,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -4069,7 +4078,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4079,11 +4088,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4095,7 +4104,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4108,11 +4117,11 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>118</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4135,21 +4144,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4161,28 +4170,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>130</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4207,7 +4216,7 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4218,7 +4227,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4234,7 +4243,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4244,14 +4253,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>115</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4260,14 +4269,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4277,14 +4286,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4293,14 +4302,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4310,14 +4319,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>50</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4333,7 +4342,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4343,14 +4352,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4359,31 +4368,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4399,13 +4408,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4416,7 +4425,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4432,7 +4441,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4449,7 +4458,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4465,7 +4474,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4475,11 +4484,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4491,14 +4500,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4508,11 +4517,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>142</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4524,28 +4533,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>163</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>164</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4557,31 +4566,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4590,14 +4599,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4607,14 +4616,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4623,14 +4632,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4640,14 +4649,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4656,14 +4665,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4673,14 +4682,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4689,20 +4698,20 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>25</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4713,7 +4722,7 @@
         <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4729,7 +4738,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4739,14 +4748,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>206</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4776,10 +4785,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4788,14 +4797,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4805,14 +4814,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4821,14 +4830,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>33</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4845,7 +4854,7 @@
         <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>220</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4875,10 +4884,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>86</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>293</v>
+        <v>223</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4908,10 +4917,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q105" s="12">
         <v>296</v>
-      </c>
-      <c t="s" r="Q105" s="12">
-        <v>297</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4920,14 +4929,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4937,14 +4946,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4953,14 +4962,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4970,7 +4979,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -4993,7 +5002,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>33</v>
+        <v>306</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5003,11 +5012,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -5019,14 +5028,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5036,11 +5045,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>177</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -5052,14 +5061,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>310</v>
+        <v>159</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5073,7 +5082,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5085,14 +5094,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>56</v>
+        <v>313</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5109,7 +5118,7 @@
         <v>315</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>156</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5125,7 +5134,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>317</v>
+        <v>56</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5135,14 +5144,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5158,7 +5167,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>33</v>
+        <v>320</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5168,14 +5177,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>156</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5191,7 +5200,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>323</v>
+        <v>33</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5201,14 +5210,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>195</v>
+        <v>323</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5217,14 +5226,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>156</v>
+        <v>326</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5234,11 +5243,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>279</v>
+        <v>198</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5250,14 +5259,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>326</v>
+        <v>159</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5267,11 +5276,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>327</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5290,7 +5299,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>33</v>
+        <v>329</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5300,7 +5309,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5323,7 +5332,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5333,14 +5342,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>139</v>
+        <v>332</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>86</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5349,14 +5358,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>271</v>
+        <v>101</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5366,14 +5375,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>329</v>
+        <v>142</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>330</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5382,14 +5391,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>156</v>
+        <v>274</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5399,11 +5408,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5415,14 +5424,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>323</v>
+        <v>159</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5432,11 +5441,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>195</v>
+        <v>321</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5448,14 +5457,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>56</v>
+        <v>326</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5465,49 +5474,82 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>308</v>
+        <v>198</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6969.54</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>336</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>337</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>338</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>56</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>29</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>311</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>7048.3800000000001</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>339</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>340</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>341</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6096,10 +6138,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -1028,7 +1028,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 9:57 PM</t>
+    <t>Thursday, 9 October, 2025 9:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -86,498 +86,507 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>115.7100</t>
+  </si>
+  <si>
+    <t>AM GINKO TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
+    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>B.B.C. ORAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>2:12</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN 30 TABS</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN-ORGANO 500 MG 10 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DEXAWEST 60 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>DOLO-D ORAL SUSP. 115 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>46.0350</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>FOSAMAX TAB</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>HI-POTENCY FORMULA 30 TABS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>AM GINKO TAB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>300.0000</t>
-  </si>
-  <si>
-    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>47.8800</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>36.6300</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>37.5000</t>
-  </si>
-  <si>
-    <t>AQUA PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>141.0000</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>210.0000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>B.B.C. ORAL SPRAY 25 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>2:12</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>9.6000</t>
-  </si>
-  <si>
-    <t>CATAFAST 50 MG 9 SACHET</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>CIPROFLOXACIN-ORGANO 500 MG 10 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DEVAROL-S 200000 I.U AMPOULE</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DEXAWEST 60 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>136.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>DOLO-D ORAL SUSP. 115 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>139.50</t>
-  </si>
-  <si>
-    <t>46.0350</t>
-  </si>
-  <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>FOSAMAX TAB</t>
-  </si>
-  <si>
-    <t>62.75</t>
-  </si>
-  <si>
-    <t>62.7500</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>HI-POTENCY FORMULA 30 TABS.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>10.5000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
     <t>117.00</t>
   </si>
   <si>
@@ -656,6 +665,12 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
@@ -1028,7 +1043,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 9:59 PM</t>
+    <t>Thursday, 9 October, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1785,7 +1800,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1851,7 +1866,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1860,7 +1875,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1877,11 +1892,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>18</v>
@@ -1893,14 +1908,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1910,11 +1925,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1926,14 +1941,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1943,11 +1958,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1959,7 +1974,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1976,11 +1991,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1992,7 +2007,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2009,11 +2024,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -2025,7 +2040,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2042,11 +2057,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -2058,14 +2073,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2075,11 +2090,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -2091,7 +2106,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2108,11 +2123,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2124,14 +2139,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2141,11 +2156,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -2157,7 +2172,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2174,11 +2189,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -2190,7 +2205,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2207,11 +2222,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -2223,14 +2238,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2240,11 +2255,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2256,7 +2271,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2273,11 +2288,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -2289,14 +2304,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2306,11 +2321,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2322,14 +2337,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2339,11 +2354,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2355,14 +2370,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2372,11 +2387,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -2388,7 +2403,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2405,11 +2420,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -2421,7 +2436,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2438,14 +2453,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2454,14 +2469,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2471,14 +2486,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2487,14 +2502,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2504,11 +2519,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2520,14 +2535,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2537,14 +2552,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2553,14 +2568,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2570,14 +2585,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2586,14 +2601,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2603,11 +2618,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2619,14 +2634,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2636,14 +2651,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2652,14 +2667,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2669,14 +2684,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2685,14 +2700,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2702,14 +2717,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2718,14 +2733,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2735,14 +2750,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2751,14 +2766,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2768,14 +2783,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2784,14 +2799,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2801,11 +2816,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2817,14 +2832,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2834,14 +2849,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2850,14 +2865,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2867,14 +2882,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2883,14 +2898,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2900,14 +2915,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2916,14 +2931,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2933,11 +2948,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2949,7 +2964,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2966,14 +2981,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2982,14 +2997,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2999,14 +3014,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3015,7 +3030,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3032,14 +3047,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3048,14 +3063,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3065,14 +3080,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3081,14 +3096,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3098,14 +3113,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3114,14 +3129,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3131,14 +3146,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3147,28 +3162,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3180,14 +3195,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3197,14 +3212,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3213,31 +3228,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3246,14 +3261,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3263,11 +3278,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3279,14 +3294,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3296,14 +3311,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3312,14 +3327,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3329,11 +3344,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3345,14 +3360,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3362,14 +3377,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3378,14 +3393,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3395,14 +3410,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3411,7 +3426,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3428,14 +3443,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3444,14 +3459,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3461,14 +3476,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3477,31 +3492,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3510,14 +3525,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3527,11 +3542,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3543,31 +3558,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3576,14 +3591,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3593,14 +3608,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3609,14 +3624,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3626,14 +3641,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3642,14 +3657,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3659,14 +3674,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3675,14 +3690,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3692,14 +3707,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3708,7 +3723,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3725,11 +3740,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3741,14 +3756,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3758,14 +3773,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3774,7 +3789,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3791,14 +3806,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3807,14 +3822,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3824,14 +3839,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>214</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3840,7 +3855,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3857,14 +3872,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3873,14 +3888,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3890,14 +3905,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3906,14 +3921,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3923,14 +3938,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>223</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3939,14 +3954,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3956,14 +3971,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3972,14 +3987,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3989,14 +4004,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4005,7 +4020,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4022,14 +4037,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>181</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4038,14 +4053,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4055,14 +4070,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4078,7 +4093,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4088,14 +4103,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4104,14 +4119,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4121,14 +4136,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4137,28 +4152,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4170,14 +4185,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4187,11 +4202,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4203,7 +4218,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4216,15 +4231,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4236,7 +4251,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4249,18 +4264,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4269,14 +4284,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4286,11 +4301,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4302,31 +4317,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>51</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4342,7 +4357,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4359,7 +4374,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4375,7 +4390,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4385,14 +4400,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4401,31 +4416,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>49</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4434,14 +4449,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4451,14 +4466,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4467,14 +4482,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4484,14 +4499,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>43</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4500,28 +4515,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>142</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4533,14 +4548,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4550,14 +4565,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4566,7 +4581,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4579,15 +4594,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4599,14 +4614,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4616,14 +4631,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4632,14 +4647,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>141</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4649,14 +4664,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>138</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4672,21 +4687,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4705,7 +4720,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>183</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4715,14 +4730,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4731,28 +4746,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>140</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4764,28 +4779,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>22</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4797,28 +4812,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4830,14 +4845,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>191</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4847,14 +4862,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4863,14 +4878,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4880,14 +4895,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>223</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4896,14 +4911,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>289</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4913,14 +4928,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>86</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>296</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4929,14 +4944,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>33</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4946,14 +4961,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>300</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4962,14 +4977,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>302</v>
+        <v>33</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4979,14 +4994,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>228</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4995,14 +5010,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>306</v>
+        <v>33</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5012,14 +5027,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>307</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5028,7 +5043,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5045,14 +5060,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>305</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5061,14 +5076,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>159</v>
+        <v>307</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5078,11 +5093,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5094,14 +5109,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5111,11 +5126,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5127,14 +5142,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5144,14 +5159,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>159</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5160,14 +5175,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>320</v>
+        <v>161</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5177,11 +5192,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>286</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5193,14 +5208,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>33</v>
+        <v>318</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5210,14 +5225,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>159</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5226,14 +5241,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5243,14 +5258,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>198</v>
+        <v>322</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>199</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5259,14 +5274,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5276,11 +5291,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>209</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5292,14 +5307,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>329</v>
+        <v>33</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5309,14 +5324,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5325,14 +5340,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>33</v>
+        <v>331</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5342,11 +5357,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>332</v>
+        <v>201</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>333</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5358,14 +5373,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5375,14 +5390,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>142</v>
+        <v>287</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5391,14 +5406,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>274</v>
+        <v>334</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5408,11 +5423,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5431,7 +5446,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5441,11 +5456,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5457,14 +5472,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>326</v>
+        <v>101</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5474,14 +5489,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5490,14 +5505,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>56</v>
+        <v>279</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5507,49 +5522,148 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>180</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>7048.3800000000001</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>339</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>340</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
         <v>341</v>
       </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>161</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>29</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>326</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>342</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>331</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>29</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>201</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>343</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>55</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>29</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>316</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>7198.8599999999997</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>344</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>345</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>346</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6143,10 +6257,25 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -1043,7 +1043,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 10:03 PM</t>
+    <t>Thursday, 9 October, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -794,6 +794,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
   </si>
   <si>
@@ -1043,7 +1052,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 10:06 PM</t>
+    <t>Thursday, 9 October, 2025 10:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4555,7 +4564,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4588,7 +4597,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4605,7 +4614,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4621,7 +4630,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4631,11 +4640,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>144</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4647,14 +4656,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4664,11 +4673,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4680,28 +4689,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4713,31 +4722,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4746,14 +4755,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4763,14 +4772,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4779,14 +4788,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4796,14 +4805,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>23</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4812,14 +4821,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4829,14 +4838,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4845,20 +4854,20 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4869,7 +4878,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4885,7 +4894,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>286</v>
+        <v>191</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4895,14 +4904,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>212</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4932,10 +4941,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4944,14 +4953,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4961,14 +4970,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>183</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4977,14 +4986,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>33</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5001,7 +5010,7 @@
         <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>228</v>
+        <v>183</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5031,10 +5040,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>301</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5064,10 +5073,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q109" s="12">
         <v>304</v>
-      </c>
-      <c t="s" r="Q109" s="12">
-        <v>305</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5076,14 +5085,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>307</v>
+        <v>33</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5093,14 +5102,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5109,14 +5118,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5126,7 +5135,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5149,7 +5158,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>33</v>
+        <v>314</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5159,11 +5168,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5175,14 +5184,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5192,11 +5201,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>182</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5208,14 +5217,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>318</v>
+        <v>161</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5229,7 +5238,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>320</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5241,14 +5250,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>55</v>
+        <v>321</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5265,7 +5274,7 @@
         <v>323</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>161</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5281,7 +5290,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>325</v>
+        <v>55</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5291,14 +5300,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5314,7 +5323,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>33</v>
+        <v>328</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5324,14 +5333,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>161</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5347,7 +5356,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>331</v>
+        <v>33</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5357,14 +5366,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>201</v>
+        <v>331</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>202</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>18</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5373,14 +5382,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>161</v>
+        <v>334</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5390,11 +5399,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>287</v>
+        <v>201</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5406,14 +5415,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>334</v>
+        <v>161</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5423,11 +5432,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5446,7 +5455,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>33</v>
+        <v>337</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5456,7 +5465,7 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5479,7 +5488,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5489,14 +5498,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>144</v>
+        <v>340</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>85</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5505,14 +5514,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>279</v>
+        <v>101</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5522,14 +5531,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>337</v>
+        <v>144</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>338</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5538,14 +5547,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5555,11 +5564,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>18</v>
@@ -5571,14 +5580,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>331</v>
+        <v>161</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5588,11 +5597,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>201</v>
+        <v>329</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5604,14 +5613,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>55</v>
+        <v>334</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5621,49 +5630,82 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>316</v>
+        <v>201</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>346</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>55</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>29</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>319</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
         <v>182</v>
       </c>
-      <c t="s" r="Q126" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>7198.8599999999997</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>344</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>345</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>346</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c t="s" r="Q127" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7260.8599999999997</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>347</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>348</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>349</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6272,10 +6314,15 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -1052,7 +1052,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 10:08 PM</t>
+    <t>Thursday, 9 October, 2025 10:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -296,6 +296,15 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
@@ -584,297 +593,291 @@
     <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
   </si>
   <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>77.2200</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
+  </si>
+  <si>
+    <t>368.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>OCTATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PEDICAL PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>PENDULINE كريم ب زبدة الشيا</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>PIOSETA HAIR OIL</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>REPAION-N GEL 50 GM</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>103.7400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOPADOL WOMAN </t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>VENTAMOR FACIAL WASH</t>
+  </si>
+  <si>
+    <t>VERSERC 24MG 30 TAB</t>
+  </si>
+  <si>
+    <t>159.6000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIAFER  30 TAB</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>178.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
-  </si>
-  <si>
-    <t>368.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>OCTATRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PEDICAL PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>PENDULINE كريم ب زبدة الشيا</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>PIOSETA HAIR OIL</t>
-  </si>
-  <si>
-    <t>185.00</t>
-  </si>
-  <si>
-    <t>185.0000</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>REPAION-N GEL 50 GM</t>
-  </si>
-  <si>
-    <t>ROWACHOL 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>SANSOVIT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>103.7400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOPADOL WOMAN </t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>VENTAMOR FACIAL WASH</t>
-  </si>
-  <si>
-    <t>VERSERC 24MG 30 TAB</t>
-  </si>
-  <si>
-    <t>159.6000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>XILONE 5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>112.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZIAFER  30 TAB</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -1052,7 +1055,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 10:10 PM</t>
+    <t>Thursday, 9 October, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2518,7 +2521,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2528,11 +2531,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2544,14 +2547,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2561,11 +2564,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2584,7 +2587,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2594,14 +2597,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2610,14 +2613,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2627,14 +2630,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2643,14 +2646,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2660,11 +2663,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2676,14 +2679,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2693,7 +2696,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2716,7 +2719,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2726,14 +2729,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2742,14 +2745,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2759,14 +2762,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2775,14 +2778,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2792,11 +2795,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2808,14 +2811,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2825,14 +2828,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2841,14 +2844,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2881,7 +2884,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2891,7 +2894,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2924,14 +2927,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2947,7 +2950,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2957,14 +2960,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2980,7 +2983,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2997,7 +3000,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3027,10 +3030,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3039,7 +3042,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3056,11 +3059,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -3079,7 +3082,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3089,14 +3092,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3105,14 +3108,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3145,7 +3148,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3162,7 +3165,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3178,7 +3181,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3211,7 +3214,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3225,10 +3228,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3237,7 +3240,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3250,18 +3253,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3277,21 +3280,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3303,14 +3306,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3327,7 +3330,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3343,7 +3346,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3360,7 +3363,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3376,7 +3379,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3419,11 +3422,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3435,14 +3438,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3452,14 +3455,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3475,7 +3478,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3508,7 +3511,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3518,14 +3521,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3541,7 +3544,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3551,14 +3554,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>186</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3574,24 +3577,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3600,31 +3603,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3633,14 +3636,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3650,14 +3653,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3666,14 +3669,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3683,14 +3686,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3699,14 +3702,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3716,14 +3719,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3732,14 +3735,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3749,11 +3752,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3765,14 +3768,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3782,14 +3785,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3798,14 +3801,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3815,14 +3818,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3848,14 +3851,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3885,10 +3888,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3897,14 +3900,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3914,14 +3917,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>217</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3930,14 +3933,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3947,14 +3950,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3984,10 +3987,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3996,7 +3999,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4013,11 +4016,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -4029,14 +4032,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4046,14 +4049,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>228</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4062,14 +4065,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4079,14 +4082,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q79" s="12">
         <v>230</v>
-      </c>
-      <c t="s" r="Q79" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4102,7 +4105,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4112,7 +4115,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4135,7 +4138,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4145,14 +4148,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4168,7 +4171,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4178,14 +4181,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4194,7 +4197,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4211,11 +4214,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4227,14 +4230,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4244,7 +4247,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4273,15 +4276,15 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>123</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4293,28 +4296,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4326,28 +4329,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4359,7 +4362,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4372,18 +4375,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4392,14 +4395,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4409,14 +4412,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4425,14 +4428,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4442,14 +4445,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>50</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4458,14 +4461,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4475,14 +4478,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>49</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4491,14 +4494,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4508,14 +4511,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4531,24 +4534,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4557,31 +4560,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4590,14 +4593,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4607,11 +4610,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4623,14 +4626,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4640,14 +4643,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4656,14 +4659,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4673,11 +4676,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>144</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4689,14 +4692,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4706,11 +4709,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>147</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4722,28 +4725,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4755,31 +4758,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4795,7 +4798,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4805,14 +4808,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4828,7 +4831,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4838,14 +4841,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>23</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4854,14 +4857,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4871,14 +4874,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>22</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4887,31 +4890,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4920,14 +4923,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4937,14 +4940,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>212</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4953,14 +4956,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4970,14 +4973,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4986,14 +4989,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5003,14 +5006,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>183</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5019,14 +5022,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>33</v>
+        <v>297</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5036,14 +5039,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>228</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5052,7 +5055,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5069,14 +5072,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>85</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>304</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5085,7 +5088,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5102,14 +5105,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5118,14 +5121,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5135,14 +5138,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5151,14 +5154,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5168,11 +5171,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5184,14 +5187,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>33</v>
+        <v>315</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5201,11 +5204,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5217,14 +5220,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5234,11 +5237,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>182</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5250,14 +5253,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>321</v>
+        <v>164</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5267,11 +5270,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>323</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5283,14 +5286,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>55</v>
+        <v>322</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5300,14 +5303,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>161</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5316,14 +5319,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>328</v>
+        <v>55</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5333,14 +5336,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5349,14 +5352,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>33</v>
+        <v>329</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5366,14 +5369,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>161</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5382,14 +5385,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>334</v>
+        <v>33</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5399,14 +5402,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>201</v>
+        <v>332</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>18</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5415,14 +5418,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>161</v>
+        <v>335</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5432,11 +5435,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>290</v>
+        <v>203</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5455,7 +5458,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>337</v>
+        <v>164</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5465,11 +5468,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>338</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5481,14 +5484,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>33</v>
+        <v>338</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5498,11 +5501,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5514,14 +5517,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5531,14 +5534,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>144</v>
+        <v>341</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>85</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5554,7 +5557,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>282</v>
+        <v>104</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5564,14 +5567,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>340</v>
+        <v>147</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>341</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5587,7 +5590,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>161</v>
+        <v>284</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5597,11 +5600,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5620,7 +5623,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>334</v>
+        <v>164</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5630,11 +5633,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>201</v>
+        <v>330</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>202</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5653,7 +5656,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>55</v>
+        <v>335</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5663,49 +5666,82 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>319</v>
+        <v>203</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>7260.8599999999997</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
         <v>347</v>
       </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>55</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>29</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>320</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>7342.3699999999999</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
         <v>348</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
         <v>349</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>350</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6319,10 +6355,15 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -1055,7 +1055,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 10:11 PM</t>
+    <t>Thursday, 9 October, 2025 10:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -449,411 +449,414 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>27.8400</t>
+  </si>
+  <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>46.0350</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>FOSAMAX TAB</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>HI-POTENCY FORMULA 30 TABS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>77.2200</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
+  </si>
+  <si>
+    <t>368.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>OCTATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PEDICAL PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>PENDULINE كريم ب زبدة الشيا</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>PIOSETA HAIR OIL</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>REPAION-N GEL 50 GM</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>103.7400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOPADOL WOMAN </t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>VENTAMOR FACIAL WASH</t>
+  </si>
+  <si>
+    <t>VERSERC 24MG 30 TAB</t>
+  </si>
+  <si>
+    <t>159.6000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>7:1</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>139.50</t>
-  </si>
-  <si>
-    <t>46.0350</t>
-  </si>
-  <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>FOSAMAX TAB</t>
-  </si>
-  <si>
-    <t>62.75</t>
-  </si>
-  <si>
-    <t>62.7500</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>HI-POTENCY FORMULA 30 TABS.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>10.5000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>77.2200</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>178.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
-  </si>
-  <si>
-    <t>368.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>OCTATRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PEDICAL PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>PENDULINE كريم ب زبدة الشيا</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>PIOSETA HAIR OIL</t>
-  </si>
-  <si>
-    <t>185.00</t>
-  </si>
-  <si>
-    <t>185.0000</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>REPAION-N GEL 50 GM</t>
-  </si>
-  <si>
-    <t>ROWACHOL 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>SANSOVIT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>103.7400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOPADOL WOMAN </t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>VENTAMOR FACIAL WASH</t>
-  </si>
-  <si>
-    <t>VERSERC 24MG 30 TAB</t>
-  </si>
-  <si>
-    <t>159.6000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
     <t>16.8300</t>
   </si>
   <si>
@@ -1055,7 +1058,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 10:12 PM</t>
+    <t>Thursday, 9 October, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3132,7 +3135,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -4831,7 +4834,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>146</v>
+        <v>281</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4845,7 +4848,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4857,7 +4860,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4890,14 +4893,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4907,11 +4910,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4923,14 +4926,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4956,14 +4959,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4973,7 +4976,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4989,14 +4992,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5006,11 +5009,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5022,14 +5025,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5039,11 +5042,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>186</v>
@@ -5055,7 +5058,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5072,11 +5075,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>230</v>
@@ -5088,7 +5091,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5105,14 +5108,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5121,7 +5124,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5138,14 +5141,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5154,14 +5157,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5171,11 +5174,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5187,14 +5190,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5204,11 +5207,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5220,7 +5223,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5237,11 +5240,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5253,7 +5256,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5270,7 +5273,7 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
@@ -5286,14 +5289,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5303,11 +5306,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5319,7 +5322,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5336,11 +5339,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>164</v>
@@ -5352,14 +5355,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5369,11 +5372,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5385,7 +5388,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5402,11 +5405,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>164</v>
@@ -5418,14 +5421,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5451,7 +5454,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5468,7 +5471,7 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5484,14 +5487,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5501,11 +5504,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5517,7 +5520,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5534,11 +5537,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5550,7 +5553,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5583,14 +5586,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5600,11 +5603,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5616,7 +5619,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5633,11 +5636,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5649,14 +5652,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5682,7 +5685,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5699,7 +5702,7 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
@@ -5711,13 +5714,13 @@
     </row>
     <row r="129" ht="25.5" customHeight="1">
       <c r="P129" s="13">
-        <v>7342.3699999999999</v>
+        <v>7366.3699999999999</v>
       </c>
       <c r="Q129" s="13"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
       <c t="s" r="A130" s="14">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -5725,13 +5728,13 @@
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
       <c t="s" r="G130" s="15">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
       <c r="J130" s="16"/>
       <c t="s" r="K130" s="17">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L130" s="17"/>
       <c r="M130" s="17"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -1058,7 +1058,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 10:17 PM</t>
+    <t>Thursday, 9 October, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -287,6 +287,12 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>CETAL SINUS 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CIPROFLOXACIN-ORGANO 500 MG 10 F.C.TABS.</t>
   </si>
   <si>
@@ -386,6 +392,15 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-SIGMA 8MG/2ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>DEXAWEST 60 MG 14 CAPS</t>
   </si>
   <si>
@@ -791,6 +806,15 @@
     <t>103.7400</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t xml:space="preserve">STOPADOL WOMAN </t>
   </si>
   <si>
@@ -854,10 +878,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>XILONE 5MG/5ML SYRUP 100ML</t>
@@ -890,12 +911,21 @@
     <t>25.00</t>
   </si>
   <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>20:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -929,7 +959,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>36:0</t>
+    <t>39:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1010,9 +1040,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -1031,9 +1058,6 @@
     <t>-1:0</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -1058,7 +1082,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 10:18 PM</t>
+    <t>Thursday, 9 October, 2025 10:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2491,7 +2515,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2501,14 +2525,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2517,14 +2541,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2534,14 +2558,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2550,14 +2574,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2567,11 +2591,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2590,7 +2614,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2600,11 +2624,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2616,14 +2640,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2633,14 +2657,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2649,14 +2673,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2666,14 +2690,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2689,7 +2713,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2699,7 +2723,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2722,7 +2746,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2732,11 +2756,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2748,14 +2772,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2765,14 +2789,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2798,14 +2822,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2814,14 +2838,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2831,11 +2855,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2847,14 +2871,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2864,14 +2888,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2880,14 +2904,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2897,11 +2921,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2913,14 +2937,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2930,11 +2954,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2946,14 +2970,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2963,14 +2987,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2979,14 +3003,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2996,14 +3020,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3012,14 +3036,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3029,14 +3053,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3045,14 +3069,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3062,11 +3086,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -3102,7 +3126,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3118,7 +3142,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3128,14 +3152,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3144,7 +3168,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3161,14 +3185,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3177,14 +3201,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3194,14 +3218,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3210,14 +3234,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3227,14 +3251,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3243,14 +3267,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3260,14 +3284,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3283,13 +3307,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3316,7 +3340,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3326,14 +3350,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3342,31 +3366,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3375,14 +3399,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3392,11 +3416,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3408,14 +3432,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3425,14 +3449,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3441,14 +3465,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3458,7 +3482,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3481,7 +3505,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3498,7 +3522,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3514,7 +3538,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3524,14 +3548,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3540,7 +3564,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3557,14 +3581,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3573,14 +3597,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3590,14 +3614,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3606,31 +3630,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>191</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3646,7 +3670,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3656,11 +3680,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3672,31 +3696,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3705,14 +3729,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3722,14 +3746,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3738,14 +3762,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3755,14 +3779,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3771,14 +3795,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3788,14 +3812,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3804,14 +3828,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3821,14 +3845,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3837,7 +3861,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3854,7 +3878,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3877,7 +3901,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3891,10 +3915,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3903,7 +3927,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3920,14 +3944,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3943,7 +3967,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3953,14 +3977,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>219</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3969,7 +3993,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3986,11 +4010,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4002,14 +4026,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4019,14 +4043,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>224</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4056,10 +4080,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4068,14 +4092,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4085,14 +4109,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>230</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4101,14 +4125,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4118,14 +4142,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4141,7 +4165,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4151,14 +4175,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4167,14 +4191,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4184,14 +4208,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4200,14 +4224,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4217,14 +4241,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4233,14 +4257,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4250,14 +4274,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4266,14 +4290,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4283,11 +4307,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4306,13 +4330,13 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4339,7 +4363,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4349,11 +4373,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>136</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4365,7 +4389,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4382,11 +4406,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4398,14 +4422,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4415,14 +4439,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4431,28 +4455,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>123</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4464,14 +4488,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4481,11 +4505,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>50</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4497,14 +4521,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4514,11 +4538,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>125</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4530,14 +4554,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4547,14 +4571,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4570,13 +4594,13 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4603,7 +4627,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4613,14 +4637,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4629,14 +4653,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4646,11 +4670,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4662,7 +4686,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4675,15 +4699,15 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4695,14 +4719,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4712,14 +4736,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4728,14 +4752,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4752,7 +4776,7 @@
         <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4774,15 +4798,15 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>171</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4794,14 +4818,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4811,14 +4835,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4827,14 +4851,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4844,14 +4868,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4860,28 +4884,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4893,14 +4917,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4910,14 +4934,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4933,24 +4957,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>289</v>
+        <v>137</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>97</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4966,21 +4990,21 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4992,28 +5016,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5025,14 +5049,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5042,14 +5066,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>98</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5058,14 +5082,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>33</v>
+        <v>298</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5075,14 +5099,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>230</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5091,14 +5115,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>33</v>
+        <v>301</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5108,14 +5132,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>85</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>306</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5124,14 +5148,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>33</v>
+        <v>301</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5141,14 +5165,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>310</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5157,14 +5181,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5174,14 +5198,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>191</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5190,14 +5214,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>316</v>
+        <v>33</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5207,14 +5231,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5223,7 +5247,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5240,14 +5264,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5256,14 +5280,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5273,14 +5297,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>185</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5289,14 +5313,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5306,11 +5330,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5322,14 +5346,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>55</v>
+        <v>326</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5339,14 +5363,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>164</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5355,14 +5379,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>330</v>
+        <v>33</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5372,11 +5396,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5388,14 +5412,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5405,14 +5429,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>334</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>164</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5421,14 +5445,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5438,11 +5462,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>204</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5454,14 +5478,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5471,14 +5495,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>18</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5487,14 +5511,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5504,11 +5528,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5520,7 +5544,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5537,14 +5561,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
         <v>343</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>18</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5560,7 +5584,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>104</v>
+        <v>345</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5570,14 +5594,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5586,14 +5610,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>285</v>
+        <v>169</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5603,11 +5627,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5619,14 +5643,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>164</v>
+        <v>348</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5636,11 +5660,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5652,14 +5676,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>336</v>
+        <v>33</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5669,11 +5693,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>203</v>
+        <v>350</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>204</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>18</v>
@@ -5685,14 +5709,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5702,49 +5726,181 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>321</v>
+        <v>152</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>7366.3699999999999</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>349</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>353</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>292</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>29</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
         <v>350</v>
       </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
         <v>351</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c t="s" r="Q129" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>354</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>169</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>29</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>341</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>355</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>345</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>29</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>208</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>356</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>55</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>29</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>331</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>7447.0699999999997</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>357</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>358</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>359</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6363,10 +6519,30 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -1082,7 +1082,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 10:45 PM</t>
+    <t>Thursday, 9 October, 2025 10:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -1082,7 +1082,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Thursday, 9 October, 2025 10:47 PM</t>
+    <t>Thursday, 9 October, 2025 11:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 10 October, 2025 12:01 AM</t>
+    <t>Friday, 10 October, 2025 12:02 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 10 October, 2025 12:02 AM</t>
+    <t>Friday, 10 October, 2025 12:03 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-09_00-00.xlsx
+++ b/DaySale_2025-10-09_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 10 October, 2025 12:03 AM</t>
+    <t>Friday, 10 October, 2025 12:05 AM</t>
   </si>
   <si>
     <t>1/1</t>
